--- a/1_Plasma_Pipette/3_Firmware/Plasma_Pipette_V1.0_MCU_PinMap.xlsx
+++ b/1_Plasma_Pipette/3_Firmware/Plasma_Pipette_V1.0_MCU_PinMap.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12975" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12975"/>
   </bookViews>
   <sheets>
     <sheet name="Pipette V1.0" sheetId="9" r:id="rId1"/>
@@ -12,14 +12,14 @@
     <sheet name="Sheet1" sheetId="8" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Pipette V1.0'!$B$15:$O$79</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Pipette V1.0'!$B$15:$P$79</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="371">
   <si>
     <t>Function</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -789,10 +789,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>USB_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Charger</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -845,10 +841,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RS-232를 USB CON으로 사용시 기능 지원 예정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Floating 상태에서 High input시 동작</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1193,103 +1185,251 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>Plsma Level Low</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plsma Level Middle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plsma Level High</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GAS_EN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas S/V On Signal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPIO_EXTI6_Falling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEY_DOWN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEY_UP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plasma Level control</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPIO_EXTI4_Falling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HW_ID0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HW_ID1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEY_PWR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BAT_ADC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BATT_THERM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USART1_TX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPIO_EXTI0_Rising/Falling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GND_JACK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GND Jack detect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Low 상태에서 High detect시 GND JACK 인식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Off-page</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>NRST</t>
+  </si>
+  <si>
+    <t>Device Reset</t>
+  </si>
+  <si>
+    <t>LOW</t>
+  </si>
+  <si>
+    <t>BAT_ADC</t>
+  </si>
+  <si>
+    <t>Battery</t>
+  </si>
+  <si>
+    <t>BATT_THERM</t>
+  </si>
+  <si>
+    <t>PLA_CTRL</t>
+  </si>
+  <si>
+    <t>Plasma Duty Control</t>
+  </si>
+  <si>
+    <t>BUZZER</t>
+  </si>
+  <si>
+    <t>Buzzer enable</t>
+  </si>
+  <si>
+    <t>HIGH</t>
+  </si>
+  <si>
+    <t>KEY_PWR</t>
+  </si>
+  <si>
+    <t>Powe On key</t>
+  </si>
+  <si>
+    <t>PW_CTRL</t>
+  </si>
+  <si>
+    <t>PS_HOLD</t>
+  </si>
+  <si>
+    <t>CHG_STA</t>
+  </si>
+  <si>
+    <t>Charger</t>
+  </si>
+  <si>
+    <t>CHG_CTRL</t>
+  </si>
+  <si>
+    <t>USB_ID</t>
+  </si>
+  <si>
+    <t>USB</t>
+  </si>
+  <si>
+    <t>USB_DET</t>
+  </si>
+  <si>
+    <t>PULSE_OUT1</t>
+  </si>
+  <si>
+    <t>Plasma</t>
+  </si>
+  <si>
+    <t>USART1_TX</t>
+  </si>
+  <si>
+    <t>RS-232 external interface</t>
+  </si>
+  <si>
+    <t>DATA</t>
+  </si>
+  <si>
+    <t>USART1_RX</t>
+  </si>
+  <si>
+    <t>PULSE_OUT2</t>
+  </si>
+  <si>
+    <t>EN_+8V</t>
+  </si>
+  <si>
+    <t>Boost</t>
+  </si>
+  <si>
+    <t>SYS_SWDIO</t>
+  </si>
+  <si>
+    <t>SW Download</t>
+  </si>
+  <si>
+    <t>SYS_SWCLK</t>
+  </si>
+  <si>
+    <t>CLK</t>
+  </si>
+  <si>
+    <t>STA_LED_B</t>
+  </si>
+  <si>
+    <t>POWER LED-Blue</t>
+  </si>
+  <si>
+    <t>STA_LED_R</t>
+  </si>
+  <si>
+    <t>POWER LED-RED</t>
+  </si>
+  <si>
+    <t>STA_LED_G</t>
+  </si>
+  <si>
+    <t>POWER LED-Green</t>
+  </si>
+  <si>
+    <t>GND</t>
+  </si>
+  <si>
+    <t>OP_LED</t>
+  </si>
+  <si>
+    <t>Plasma On</t>
+  </si>
+  <si>
+    <t>KEY_OP</t>
+  </si>
+  <si>
+    <t>Proto-type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED_HIGH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED_MED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>LED_LOW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LED_MED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LED_HIGH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Plsma Level Low</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Plsma Level Middle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Plsma Level High</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GAS_EN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gas S/V On Signal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GPIO_EXTI6_Falling</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KEY_DOWN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KEY_UP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Plasma Level control</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GPIO_EXTI4_Falling</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HW_ID0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HW_ID1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KEY_PWR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BAT_ADC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BATT_THERM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USART1_TX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GPIO_EXTI0_Rising/Falling</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GND_JACK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GND Jack detect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Low 상태에서 High detect시 GND JACK 인식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1300,7 +1440,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1362,8 +1502,28 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1442,8 +1602,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF66FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1677,12 +1843,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="177">
+  <cellXfs count="201">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2120,28 +2310,68 @@
     <xf numFmtId="0" fontId="7" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2150,41 +2380,71 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2202,9 +2462,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2423,7 +2680,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2458,7 +2715,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2667,10 +2924,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M93"/>
+  <dimension ref="B1:P93"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L66" sqref="L66"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P59" sqref="P58:P59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2680,39 +2937,48 @@
     <col min="4" max="4" width="7.5" style="5" customWidth="1"/>
     <col min="5" max="5" width="24.875" style="5" customWidth="1"/>
     <col min="6" max="6" width="18.125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="25.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="24.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="44.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="1"/>
+    <col min="7" max="7" width="14.375" style="173" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.125" style="173" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.25" style="173" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="24.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.875" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="44.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="2" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>270</v>
+      </c>
+      <c r="G1" s="160"/>
+      <c r="H1" s="160"/>
+      <c r="I1" s="160"/>
+    </row>
+    <row r="2" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="22" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="161"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="170" t="s">
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B3" s="179" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="171"/>
+      <c r="C3" s="180"/>
       <c r="D3" s="2">
         <v>128</v>
       </c>
@@ -2720,21 +2986,24 @@
         <v>4</v>
       </c>
       <c r="F3" s="23"/>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="161"/>
+      <c r="H3" s="160"/>
+      <c r="I3" s="160"/>
+      <c r="J3" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="H3" s="2">
+      <c r="K3" s="2">
         <v>48000000</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="L3" s="23" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="172" t="s">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B4" s="181" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="173"/>
+      <c r="C4" s="182"/>
       <c r="D4" s="3">
         <v>16</v>
       </c>
@@ -2742,22 +3011,25 @@
         <v>4</v>
       </c>
       <c r="F4" s="12"/>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="161"/>
+      <c r="H4" s="160"/>
+      <c r="I4" s="160"/>
+      <c r="J4" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="H4" s="27">
-        <f>H3/1</f>
+      <c r="K4" s="27">
+        <f>K3/1</f>
         <v>48000000</v>
       </c>
-      <c r="I4" s="12" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="172" t="s">
+      <c r="L4" s="12" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B5" s="181" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="173"/>
+      <c r="C5" s="182"/>
       <c r="D5" s="3">
         <v>48</v>
       </c>
@@ -2767,22 +3039,25 @@
       <c r="F5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="H5" s="27">
-        <f>H3*1</f>
+      <c r="G5" s="161"/>
+      <c r="H5" s="160"/>
+      <c r="I5" s="160"/>
+      <c r="J5" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="K5" s="27">
+        <f>K3*1</f>
         <v>48000000</v>
       </c>
-      <c r="I5" s="12" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="172" t="s">
+      <c r="L5" s="12" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B6" s="181" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="173"/>
+      <c r="C6" s="182"/>
       <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
@@ -2790,174 +3065,216 @@
         <v>11</v>
       </c>
       <c r="F6" s="12"/>
-      <c r="G6" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="H6" s="27">
+      <c r="G6" s="161"/>
+      <c r="H6" s="160"/>
+      <c r="I6" s="160"/>
+      <c r="J6" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="K6" s="27">
         <v>16000000</v>
       </c>
-      <c r="I6" s="12"/>
-    </row>
-    <row r="7" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="174" t="s">
+      <c r="L6" s="12"/>
+    </row>
+    <row r="7" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="183" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="175"/>
+      <c r="C7" s="184"/>
       <c r="D7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="24"/>
-      <c r="G7" s="28" t="s">
+      <c r="G7" s="161"/>
+      <c r="H7" s="160"/>
+      <c r="I7" s="160"/>
+      <c r="J7" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="H7" s="3">
-        <f>(H5)/H6-1</f>
+      <c r="K7" s="3">
+        <f>(K5)/K6-1</f>
         <v>2</v>
       </c>
-      <c r="I7" s="12" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="G8" s="13" t="s">
+      <c r="L7" s="12" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="G8" s="161"/>
+      <c r="H8" s="160"/>
+      <c r="I8" s="160"/>
+      <c r="J8" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="H8" s="3">
+      <c r="K8" s="3">
         <v>80000</v>
       </c>
-      <c r="I8" s="12"/>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="G9" s="28" t="s">
+      <c r="L8" s="12"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="G9" s="161"/>
+      <c r="H9" s="160"/>
+      <c r="I9" s="160"/>
+      <c r="J9" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="H9" s="29">
-        <f>H6/H8-1</f>
+      <c r="K9" s="29">
+        <f>K6/K8-1</f>
         <v>199</v>
       </c>
-      <c r="I9" s="12" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="G10" s="13" t="s">
+      <c r="L9" s="12" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="G10" s="161"/>
+      <c r="H10" s="160"/>
+      <c r="I10" s="160"/>
+      <c r="J10" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="H10" s="3">
+      <c r="K10" s="3">
         <v>50</v>
       </c>
-      <c r="I10" s="12"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="G11" s="13" t="s">
+      <c r="L10" s="12"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="G11" s="161"/>
+      <c r="H11" s="160"/>
+      <c r="I11" s="160"/>
+      <c r="J11" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="H11" s="29">
-        <f>H10*H9/100</f>
+      <c r="K11" s="29">
+        <f>K10*K9/100</f>
         <v>99.5</v>
       </c>
-      <c r="I11" s="12"/>
-    </row>
-    <row r="12" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G12" s="30" t="s">
+      <c r="L11" s="12"/>
+    </row>
+    <row r="12" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G12" s="161"/>
+      <c r="H12" s="160"/>
+      <c r="I12" s="160"/>
+      <c r="J12" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="H12" s="4">
-        <f>1/H8</f>
+      <c r="K12" s="4">
+        <f>1/K8</f>
         <v>1.2500000000000001E-5</v>
       </c>
-      <c r="I12" s="24"/>
-    </row>
-    <row r="13" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="163" t="s">
+      <c r="L12" s="24"/>
+    </row>
+    <row r="13" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G13" s="160"/>
+      <c r="H13" s="160"/>
+      <c r="I13" s="160"/>
+    </row>
+    <row r="14" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="177" t="s">
         <v>103</v>
       </c>
-      <c r="C14" s="164"/>
-      <c r="D14" s="164" t="s">
+      <c r="C14" s="178"/>
+      <c r="D14" s="178" t="s">
         <v>90</v>
       </c>
-      <c r="E14" s="164" t="s">
+      <c r="E14" s="178" t="s">
         <v>92</v>
       </c>
-      <c r="F14" s="176"/>
-      <c r="G14" s="166" t="s">
+      <c r="F14" s="186"/>
+      <c r="G14" s="193" t="s">
+        <v>367</v>
+      </c>
+      <c r="H14" s="194"/>
+      <c r="I14" s="194"/>
+      <c r="J14" s="187" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="167"/>
-      <c r="I14" s="166" t="s">
-        <v>281</v>
-      </c>
-      <c r="J14" s="168"/>
-      <c r="K14" s="168"/>
-      <c r="L14" s="168"/>
-      <c r="M14" s="169"/>
-    </row>
-    <row r="15" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K14" s="188"/>
+      <c r="L14" s="187" t="s">
+        <v>279</v>
+      </c>
+      <c r="M14" s="197"/>
+      <c r="N14" s="197"/>
+      <c r="O14" s="197"/>
+      <c r="P14" s="198"/>
+    </row>
+    <row r="15" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="6" t="s">
         <v>104</v>
       </c>
       <c r="C15" s="102" t="s">
-        <v>283</v>
-      </c>
-      <c r="D15" s="165"/>
+        <v>281</v>
+      </c>
+      <c r="D15" s="185"/>
       <c r="E15" s="73" t="s">
         <v>168</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="G15" s="32" t="s">
+      <c r="G15" s="162" t="s">
+        <v>319</v>
+      </c>
+      <c r="H15" s="162" t="s">
+        <v>320</v>
+      </c>
+      <c r="I15" s="162" t="s">
+        <v>321</v>
+      </c>
+      <c r="J15" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="H15" s="74" t="s">
+      <c r="K15" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="I15" s="83" t="s">
+      <c r="L15" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="84" t="s">
+      <c r="M15" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="K15" s="84" t="s">
+      <c r="N15" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="L15" s="84" t="s">
-        <v>203</v>
-      </c>
-      <c r="M15" s="85" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O15" s="84" t="s">
+        <v>202</v>
+      </c>
+      <c r="P15" s="85" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B16" s="14">
         <v>1</v>
       </c>
       <c r="C16" s="95" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D16" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="E16" s="159" t="s">
+      <c r="E16" s="189" t="s">
         <v>101</v>
       </c>
-      <c r="F16" s="160"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="75"/>
-      <c r="I16" s="86"/>
-      <c r="J16" s="87"/>
-      <c r="K16" s="87"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="88"/>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="F16" s="190"/>
+      <c r="G16" s="163"/>
+      <c r="H16" s="163"/>
+      <c r="I16" s="163"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="75"/>
+      <c r="L16" s="86"/>
+      <c r="M16" s="87"/>
+      <c r="N16" s="87"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="88"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B17" s="17">
         <v>2</v>
       </c>
       <c r="C17" s="98" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D17" s="71" t="s">
         <v>45</v>
@@ -2968,30 +3285,39 @@
       <c r="F17" s="72" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="18" t="s">
-        <v>273</v>
-      </c>
-      <c r="H17" s="76" t="s">
-        <v>274</v>
-      </c>
-      <c r="I17" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L17" s="3"/>
-      <c r="M17" s="12"/>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="G17" s="164" t="s">
+        <v>322</v>
+      </c>
+      <c r="H17" s="164" t="s">
+        <v>322</v>
+      </c>
+      <c r="I17" s="164" t="s">
+        <v>322</v>
+      </c>
+      <c r="J17" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="K17" s="76" t="s">
+        <v>272</v>
+      </c>
+      <c r="L17" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="O17" s="3"/>
+      <c r="P17" s="12"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B18" s="17">
         <v>3</v>
       </c>
       <c r="C18" s="98" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D18" s="71" t="s">
         <v>78</v>
@@ -3002,30 +3328,39 @@
       <c r="F18" s="72" t="s">
         <v>93</v>
       </c>
-      <c r="G18" s="18" t="s">
-        <v>273</v>
-      </c>
-      <c r="H18" s="76" t="s">
-        <v>274</v>
-      </c>
-      <c r="I18" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L18" s="3"/>
-      <c r="M18" s="12"/>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="G18" s="164" t="s">
+        <v>322</v>
+      </c>
+      <c r="H18" s="164" t="s">
+        <v>322</v>
+      </c>
+      <c r="I18" s="164" t="s">
+        <v>322</v>
+      </c>
+      <c r="J18" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="K18" s="76" t="s">
+        <v>272</v>
+      </c>
+      <c r="L18" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="O18" s="3"/>
+      <c r="P18" s="12"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B19" s="17">
         <v>4</v>
       </c>
       <c r="C19" s="98" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D19" s="71" t="s">
         <v>79</v>
@@ -3036,30 +3371,39 @@
       <c r="F19" s="72" t="s">
         <v>94</v>
       </c>
-      <c r="G19" s="18" t="s">
-        <v>273</v>
-      </c>
-      <c r="H19" s="76" t="s">
-        <v>274</v>
-      </c>
-      <c r="I19" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L19" s="3"/>
-      <c r="M19" s="12"/>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="G19" s="164" t="s">
+        <v>322</v>
+      </c>
+      <c r="H19" s="164" t="s">
+        <v>322</v>
+      </c>
+      <c r="I19" s="164" t="s">
+        <v>322</v>
+      </c>
+      <c r="J19" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="K19" s="76" t="s">
+        <v>272</v>
+      </c>
+      <c r="L19" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="O19" s="3"/>
+      <c r="P19" s="12"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B20" s="17">
         <v>5</v>
       </c>
       <c r="C20" s="99" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D20" s="71" t="s">
         <v>95</v>
@@ -3070,30 +3414,39 @@
       <c r="F20" s="72" t="s">
         <v>98</v>
       </c>
-      <c r="G20" s="18" t="s">
-        <v>273</v>
-      </c>
-      <c r="H20" s="76" t="s">
-        <v>274</v>
-      </c>
-      <c r="I20" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L20" s="3"/>
-      <c r="M20" s="12"/>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="G20" s="164" t="s">
+        <v>322</v>
+      </c>
+      <c r="H20" s="164" t="s">
+        <v>322</v>
+      </c>
+      <c r="I20" s="164" t="s">
+        <v>322</v>
+      </c>
+      <c r="J20" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="K20" s="76" t="s">
+        <v>272</v>
+      </c>
+      <c r="L20" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="N20" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="O20" s="3"/>
+      <c r="P20" s="12"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B21" s="17">
         <v>6</v>
       </c>
       <c r="C21" s="99" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D21" s="71" t="s">
         <v>96</v>
@@ -3104,62 +3457,80 @@
       <c r="F21" s="72" t="s">
         <v>100</v>
       </c>
-      <c r="G21" s="18" t="s">
-        <v>273</v>
-      </c>
-      <c r="H21" s="76" t="s">
-        <v>274</v>
-      </c>
-      <c r="I21" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L21" s="3"/>
-      <c r="M21" s="12"/>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="G21" s="164" t="s">
+        <v>322</v>
+      </c>
+      <c r="H21" s="164" t="s">
+        <v>322</v>
+      </c>
+      <c r="I21" s="164" t="s">
+        <v>322</v>
+      </c>
+      <c r="J21" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="K21" s="76" t="s">
+        <v>272</v>
+      </c>
+      <c r="L21" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="O21" s="3"/>
+      <c r="P21" s="12"/>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B22" s="89">
         <v>7</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D22" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="E22" s="161" t="s">
+      <c r="E22" s="191" t="s">
         <v>102</v>
       </c>
-      <c r="F22" s="162"/>
-      <c r="G22" s="65" t="s">
+      <c r="F22" s="192"/>
+      <c r="G22" s="165" t="s">
+        <v>323</v>
+      </c>
+      <c r="H22" s="165" t="s">
+        <v>324</v>
+      </c>
+      <c r="I22" s="165" t="s">
+        <v>325</v>
+      </c>
+      <c r="J22" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="H22" s="114" t="s">
-        <v>39</v>
-      </c>
-      <c r="I22" s="124" t="s">
+      <c r="K22" s="114" t="s">
+        <v>39</v>
+      </c>
+      <c r="L22" s="124" t="s">
         <v>97</v>
       </c>
-      <c r="J22" s="117" t="s">
+      <c r="M22" s="117" t="s">
         <v>173</v>
       </c>
-      <c r="K22" s="34" t="s">
+      <c r="N22" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="L22" s="3"/>
-      <c r="M22" s="12"/>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="O22" s="3"/>
+      <c r="P22" s="12"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B23" s="17">
         <v>8</v>
       </c>
       <c r="C23" s="100" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D23" s="71" t="s">
         <v>23</v>
@@ -3170,32 +3541,41 @@
       <c r="F23" s="72" t="s">
         <v>105</v>
       </c>
-      <c r="G23" s="150" t="s">
-        <v>319</v>
-      </c>
-      <c r="H23" s="151" t="s">
+      <c r="G23" s="176" t="s">
+        <v>322</v>
+      </c>
+      <c r="H23" s="176" t="s">
+        <v>322</v>
+      </c>
+      <c r="I23" s="176" t="s">
+        <v>322</v>
+      </c>
+      <c r="J23" s="150" t="s">
+        <v>314</v>
+      </c>
+      <c r="K23" s="151" t="s">
         <v>20</v>
       </c>
-      <c r="I23" s="152" t="s">
-        <v>320</v>
-      </c>
-      <c r="J23" s="153" t="s">
-        <v>321</v>
-      </c>
-      <c r="K23" s="154" t="s">
+      <c r="L23" s="152" t="s">
+        <v>315</v>
+      </c>
+      <c r="M23" s="153" t="s">
+        <v>316</v>
+      </c>
+      <c r="N23" s="154" t="s">
         <v>21</v>
       </c>
-      <c r="L23" s="3"/>
-      <c r="M23" s="12" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="O23" s="3"/>
+      <c r="P23" s="12" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B24" s="89">
         <v>9</v>
       </c>
       <c r="C24" s="135" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D24" s="16" t="s">
         <v>22</v>
@@ -3206,30 +3586,39 @@
       <c r="F24" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="G24" s="96" t="s">
+      <c r="G24" s="174" t="s">
+        <v>326</v>
+      </c>
+      <c r="H24" s="174" t="s">
+        <v>327</v>
+      </c>
+      <c r="I24" s="175" t="s">
+        <v>322</v>
+      </c>
+      <c r="J24" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="H24" s="77" t="s">
+      <c r="K24" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="I24" s="124" t="s">
-        <v>291</v>
-      </c>
-      <c r="J24" s="117" t="s">
+      <c r="L24" s="124" t="s">
+        <v>289</v>
+      </c>
+      <c r="M24" s="117" t="s">
         <v>177</v>
       </c>
-      <c r="K24" s="34" t="s">
+      <c r="N24" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="L24" s="3"/>
-      <c r="M24" s="12"/>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="O24" s="3"/>
+      <c r="P24" s="12"/>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B25" s="89">
         <v>10</v>
       </c>
       <c r="C25" s="135" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D25" s="16" t="s">
         <v>18</v>
@@ -3240,30 +3629,39 @@
       <c r="F25" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="G25" s="96" t="s">
+      <c r="G25" s="174" t="s">
+        <v>328</v>
+      </c>
+      <c r="H25" s="174" t="s">
+        <v>327</v>
+      </c>
+      <c r="I25" s="175" t="s">
+        <v>322</v>
+      </c>
+      <c r="J25" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="H25" s="77" t="s">
+      <c r="K25" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="I25" s="124" t="s">
-        <v>292</v>
-      </c>
-      <c r="J25" s="117" t="s">
+      <c r="L25" s="124" t="s">
+        <v>290</v>
+      </c>
+      <c r="M25" s="117" t="s">
         <v>176</v>
       </c>
-      <c r="K25" s="34" t="s">
+      <c r="N25" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="L25" s="3"/>
-      <c r="M25" s="12"/>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="O25" s="3"/>
+      <c r="P25" s="12"/>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B26" s="89">
         <v>11</v>
       </c>
       <c r="C26" s="135" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D26" s="16" t="s">
         <v>77</v>
@@ -3272,76 +3670,91 @@
         <v>109</v>
       </c>
       <c r="F26" s="72" t="s">
-        <v>201</v>
-      </c>
-      <c r="G26" s="96" t="s">
+        <v>200</v>
+      </c>
+      <c r="G26" s="174" t="s">
+        <v>329</v>
+      </c>
+      <c r="H26" s="174" t="s">
+        <v>330</v>
+      </c>
+      <c r="I26" s="175" t="s">
+        <v>322</v>
+      </c>
+      <c r="J26" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="H26" s="77" t="s">
+      <c r="K26" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="I26" s="124" t="s">
-        <v>293</v>
-      </c>
-      <c r="J26" s="117" t="s">
-        <v>294</v>
-      </c>
-      <c r="K26" s="34" t="s">
+      <c r="L26" s="124" t="s">
+        <v>291</v>
+      </c>
+      <c r="M26" s="117" t="s">
+        <v>292</v>
+      </c>
+      <c r="N26" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="L26" s="3"/>
-      <c r="M26" s="12"/>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="O26" s="3"/>
+      <c r="P26" s="12"/>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B27" s="19">
         <v>12</v>
       </c>
       <c r="C27" s="94" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D27" s="68" t="s">
         <v>110</v>
       </c>
-      <c r="E27" s="155" t="s">
+      <c r="E27" s="199" t="s">
         <v>112</v>
       </c>
-      <c r="F27" s="156"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="78"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="68"/>
-      <c r="K27" s="68"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="12"/>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="F27" s="200"/>
+      <c r="G27" s="166"/>
+      <c r="H27" s="166"/>
+      <c r="I27" s="166"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="78"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="68"/>
+      <c r="N27" s="68"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="12"/>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B28" s="19">
         <v>13</v>
       </c>
       <c r="C28" s="94" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D28" s="68" t="s">
         <v>111</v>
       </c>
-      <c r="E28" s="155" t="s">
+      <c r="E28" s="199" t="s">
         <v>113</v>
       </c>
-      <c r="F28" s="156"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="78"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="68"/>
-      <c r="K28" s="68"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="12"/>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="F28" s="200"/>
+      <c r="G28" s="166"/>
+      <c r="H28" s="166"/>
+      <c r="I28" s="166"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="78"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="68"/>
+      <c r="N28" s="68"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="12"/>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B29" s="17">
         <v>14</v>
       </c>
       <c r="C29" s="100" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D29" s="71" t="s">
         <v>69</v>
@@ -3352,30 +3765,39 @@
       <c r="F29" s="72" t="s">
         <v>114</v>
       </c>
-      <c r="G29" s="18" t="s">
-        <v>273</v>
-      </c>
-      <c r="H29" s="76" t="s">
-        <v>274</v>
-      </c>
-      <c r="I29" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L29" s="3"/>
-      <c r="M29" s="12"/>
-    </row>
-    <row r="30" spans="2:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="G29" s="164" t="s">
+        <v>322</v>
+      </c>
+      <c r="H29" s="164" t="s">
+        <v>322</v>
+      </c>
+      <c r="I29" s="164" t="s">
+        <v>322</v>
+      </c>
+      <c r="J29" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="K29" s="76" t="s">
+        <v>272</v>
+      </c>
+      <c r="L29" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="M29" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="N29" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="O29" s="3"/>
+      <c r="P29" s="12"/>
+    </row>
+    <row r="30" spans="2:16" ht="33" x14ac:dyDescent="0.3">
       <c r="B30" s="89">
         <v>15</v>
       </c>
       <c r="C30" s="135" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D30" s="16" t="s">
         <v>70</v>
@@ -3386,30 +3808,39 @@
       <c r="F30" s="72" t="s">
         <v>115</v>
       </c>
-      <c r="G30" s="97" t="s">
+      <c r="G30" s="176" t="s">
+        <v>322</v>
+      </c>
+      <c r="H30" s="176" t="s">
+        <v>322</v>
+      </c>
+      <c r="I30" s="176" t="s">
+        <v>322</v>
+      </c>
+      <c r="J30" s="97" t="s">
         <v>184</v>
       </c>
-      <c r="H30" s="80" t="s">
+      <c r="K30" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="I30" s="125" t="s">
-        <v>313</v>
-      </c>
-      <c r="J30" s="118" t="s">
-        <v>277</v>
-      </c>
-      <c r="K30" s="64" t="s">
-        <v>278</v>
-      </c>
-      <c r="L30" s="3"/>
-      <c r="M30" s="12"/>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L30" s="125" t="s">
+        <v>308</v>
+      </c>
+      <c r="M30" s="118" t="s">
+        <v>275</v>
+      </c>
+      <c r="N30" s="64" t="s">
+        <v>276</v>
+      </c>
+      <c r="O30" s="3"/>
+      <c r="P30" s="12"/>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B31" s="89">
         <v>16</v>
       </c>
       <c r="C31" s="135" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D31" s="16" t="s">
         <v>71</v>
@@ -3420,30 +3851,39 @@
       <c r="F31" s="72" t="s">
         <v>116</v>
       </c>
-      <c r="G31" s="97" t="s">
+      <c r="G31" s="176" t="s">
+        <v>322</v>
+      </c>
+      <c r="H31" s="176" t="s">
+        <v>322</v>
+      </c>
+      <c r="I31" s="176" t="s">
+        <v>322</v>
+      </c>
+      <c r="J31" s="97" t="s">
         <v>184</v>
       </c>
-      <c r="H31" s="80" t="s">
+      <c r="K31" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="I31" s="125" t="s">
-        <v>314</v>
-      </c>
-      <c r="J31" s="118" t="s">
-        <v>277</v>
-      </c>
-      <c r="K31" s="64" t="s">
-        <v>278</v>
-      </c>
-      <c r="L31" s="3"/>
-      <c r="M31" s="12"/>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L31" s="125" t="s">
+        <v>309</v>
+      </c>
+      <c r="M31" s="118" t="s">
+        <v>275</v>
+      </c>
+      <c r="N31" s="64" t="s">
+        <v>276</v>
+      </c>
+      <c r="O31" s="3"/>
+      <c r="P31" s="12"/>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B32" s="17">
         <v>17</v>
       </c>
       <c r="C32" s="100" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D32" s="71" t="s">
         <v>72</v>
@@ -3454,74 +3894,89 @@
       <c r="F32" s="72" t="s">
         <v>117</v>
       </c>
-      <c r="G32" s="18" t="s">
-        <v>273</v>
-      </c>
-      <c r="H32" s="76" t="s">
-        <v>274</v>
-      </c>
-      <c r="I32" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L32" s="3"/>
-      <c r="M32" s="12"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="G32" s="164" t="s">
+        <v>322</v>
+      </c>
+      <c r="H32" s="164" t="s">
+        <v>322</v>
+      </c>
+      <c r="I32" s="164" t="s">
+        <v>322</v>
+      </c>
+      <c r="J32" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="K32" s="76" t="s">
+        <v>272</v>
+      </c>
+      <c r="L32" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="M32" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="N32" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="O32" s="3"/>
+      <c r="P32" s="12"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B33" s="19">
         <v>18</v>
       </c>
       <c r="C33" s="94" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D33" s="68" t="s">
         <v>139</v>
       </c>
-      <c r="E33" s="155" t="s">
+      <c r="E33" s="199" t="s">
         <v>118</v>
       </c>
-      <c r="F33" s="156"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="78"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="68"/>
-      <c r="K33" s="68"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="12"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="F33" s="200"/>
+      <c r="G33" s="166"/>
+      <c r="H33" s="166"/>
+      <c r="I33" s="166"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="78"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="68"/>
+      <c r="N33" s="68"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="12"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B34" s="19">
         <v>19</v>
       </c>
       <c r="C34" s="94" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D34" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="E34" s="155" t="s">
+      <c r="E34" s="199" t="s">
         <v>101</v>
       </c>
-      <c r="F34" s="156"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="78"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="68"/>
-      <c r="K34" s="68"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="12"/>
-    </row>
-    <row r="35" spans="2:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="F34" s="200"/>
+      <c r="G34" s="166"/>
+      <c r="H34" s="166"/>
+      <c r="I34" s="166"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="78"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="68"/>
+      <c r="N34" s="68"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="12"/>
+    </row>
+    <row r="35" spans="2:16" ht="33" x14ac:dyDescent="0.3">
       <c r="B35" s="17">
         <v>20</v>
       </c>
       <c r="C35" s="100" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D35" s="71" t="s">
         <v>24</v>
@@ -3532,30 +3987,39 @@
       <c r="F35" s="72" t="s">
         <v>119</v>
       </c>
-      <c r="G35" s="18" t="s">
-        <v>273</v>
-      </c>
-      <c r="H35" s="76" t="s">
-        <v>274</v>
-      </c>
-      <c r="I35" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L35" s="3"/>
-      <c r="M35" s="12"/>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="G35" s="164" t="s">
+        <v>322</v>
+      </c>
+      <c r="H35" s="164" t="s">
+        <v>322</v>
+      </c>
+      <c r="I35" s="164" t="s">
+        <v>322</v>
+      </c>
+      <c r="J35" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="K35" s="76" t="s">
+        <v>272</v>
+      </c>
+      <c r="L35" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="M35" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="N35" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="O35" s="3"/>
+      <c r="P35" s="12"/>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B36" s="17">
         <v>21</v>
       </c>
       <c r="C36" s="100" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D36" s="71" t="s">
         <v>25</v>
@@ -3566,30 +4030,39 @@
       <c r="F36" s="72" t="s">
         <v>120</v>
       </c>
-      <c r="G36" s="18" t="s">
-        <v>273</v>
-      </c>
-      <c r="H36" s="76" t="s">
-        <v>274</v>
-      </c>
-      <c r="I36" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L36" s="3"/>
-      <c r="M36" s="12"/>
-    </row>
-    <row r="37" spans="2:13" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="G36" s="164" t="s">
+        <v>322</v>
+      </c>
+      <c r="H36" s="164" t="s">
+        <v>322</v>
+      </c>
+      <c r="I36" s="164" t="s">
+        <v>322</v>
+      </c>
+      <c r="J36" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="K36" s="76" t="s">
+        <v>272</v>
+      </c>
+      <c r="L36" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="M36" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="N36" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="O36" s="3"/>
+      <c r="P36" s="12"/>
+    </row>
+    <row r="37" spans="2:16" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B37" s="17">
         <v>22</v>
       </c>
       <c r="C37" s="100" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D37" s="103" t="s">
         <v>48</v>
@@ -3600,30 +4073,39 @@
       <c r="F37" s="104" t="s">
         <v>121</v>
       </c>
-      <c r="G37" s="18" t="s">
-        <v>273</v>
-      </c>
-      <c r="H37" s="76" t="s">
-        <v>274</v>
-      </c>
-      <c r="I37" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L37" s="3"/>
-      <c r="M37" s="12"/>
-    </row>
-    <row r="38" spans="2:13" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="G37" s="174" t="s">
+        <v>331</v>
+      </c>
+      <c r="H37" s="174" t="s">
+        <v>332</v>
+      </c>
+      <c r="I37" s="174" t="s">
+        <v>333</v>
+      </c>
+      <c r="J37" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="K37" s="76" t="s">
+        <v>272</v>
+      </c>
+      <c r="L37" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="M37" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="N37" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="O37" s="3"/>
+      <c r="P37" s="12"/>
+    </row>
+    <row r="38" spans="2:16" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B38" s="138">
         <v>23</v>
       </c>
       <c r="C38" s="139" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D38" s="140" t="s">
         <v>65</v>
@@ -3632,32 +4114,41 @@
         <v>130</v>
       </c>
       <c r="F38" s="72" t="s">
+        <v>294</v>
+      </c>
+      <c r="G38" s="176" t="s">
+        <v>322</v>
+      </c>
+      <c r="H38" s="176" t="s">
+        <v>322</v>
+      </c>
+      <c r="I38" s="176" t="s">
+        <v>322</v>
+      </c>
+      <c r="J38" s="116" t="s">
+        <v>294</v>
+      </c>
+      <c r="K38" s="110" t="s">
         <v>296</v>
       </c>
-      <c r="G38" s="116" t="s">
-        <v>296</v>
-      </c>
-      <c r="H38" s="110" t="s">
-        <v>298</v>
-      </c>
-      <c r="I38" s="126" t="s">
-        <v>316</v>
-      </c>
-      <c r="J38" s="119" t="s">
+      <c r="L38" s="126" t="s">
+        <v>311</v>
+      </c>
+      <c r="M38" s="119" t="s">
         <v>183</v>
       </c>
-      <c r="K38" s="106" t="s">
-        <v>39</v>
-      </c>
-      <c r="L38" s="3"/>
-      <c r="M38" s="12"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N38" s="106" t="s">
+        <v>39</v>
+      </c>
+      <c r="O38" s="3"/>
+      <c r="P38" s="12"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B39" s="138">
         <v>24</v>
       </c>
       <c r="C39" s="139" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D39" s="140" t="s">
         <v>66</v>
@@ -3666,32 +4157,41 @@
         <v>131</v>
       </c>
       <c r="F39" s="72" t="s">
-        <v>297</v>
-      </c>
-      <c r="G39" s="116" t="s">
-        <v>297</v>
-      </c>
-      <c r="H39" s="110" t="s">
-        <v>298</v>
-      </c>
-      <c r="I39" s="126" t="s">
-        <v>317</v>
-      </c>
-      <c r="J39" s="119" t="s">
+        <v>295</v>
+      </c>
+      <c r="G39" s="176" t="s">
+        <v>322</v>
+      </c>
+      <c r="H39" s="176" t="s">
+        <v>322</v>
+      </c>
+      <c r="I39" s="176" t="s">
+        <v>322</v>
+      </c>
+      <c r="J39" s="116" t="s">
+        <v>295</v>
+      </c>
+      <c r="K39" s="110" t="s">
+        <v>296</v>
+      </c>
+      <c r="L39" s="126" t="s">
+        <v>312</v>
+      </c>
+      <c r="M39" s="119" t="s">
         <v>183</v>
       </c>
-      <c r="K39" s="106" t="s">
-        <v>39</v>
-      </c>
-      <c r="L39" s="3"/>
-      <c r="M39" s="12"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N39" s="106" t="s">
+        <v>39</v>
+      </c>
+      <c r="O39" s="3"/>
+      <c r="P39" s="12"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B40" s="89">
         <v>25</v>
       </c>
       <c r="C40" s="135" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D40" s="16" t="s">
         <v>31</v>
@@ -3702,32 +4202,41 @@
       <c r="F40" s="72" t="s">
         <v>133</v>
       </c>
-      <c r="G40" s="150" t="s">
-        <v>215</v>
-      </c>
-      <c r="H40" s="143" t="s">
-        <v>298</v>
-      </c>
-      <c r="I40" s="152" t="s">
-        <v>315</v>
-      </c>
-      <c r="J40" s="153" t="s">
-        <v>282</v>
-      </c>
-      <c r="K40" s="154" t="s">
+      <c r="G40" s="159" t="s">
+        <v>334</v>
+      </c>
+      <c r="H40" s="159" t="s">
+        <v>335</v>
+      </c>
+      <c r="I40" s="159" t="s">
+        <v>333</v>
+      </c>
+      <c r="J40" s="150" t="s">
+        <v>213</v>
+      </c>
+      <c r="K40" s="143" t="s">
+        <v>296</v>
+      </c>
+      <c r="L40" s="152" t="s">
+        <v>310</v>
+      </c>
+      <c r="M40" s="153" t="s">
+        <v>280</v>
+      </c>
+      <c r="N40" s="154" t="s">
         <v>175</v>
       </c>
-      <c r="L40" s="111"/>
-      <c r="M40" s="12" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="O40" s="111"/>
+      <c r="P40" s="12" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16" ht="33" x14ac:dyDescent="0.3">
       <c r="B41" s="89">
         <v>26</v>
       </c>
       <c r="C41" s="135" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D41" s="16" t="s">
         <v>26</v>
@@ -3738,30 +4247,39 @@
       <c r="F41" s="72" t="s">
         <v>135</v>
       </c>
-      <c r="G41" s="55" t="s">
+      <c r="G41" s="159" t="s">
+        <v>336</v>
+      </c>
+      <c r="H41" s="159" t="s">
+        <v>337</v>
+      </c>
+      <c r="I41" s="159" t="s">
+        <v>333</v>
+      </c>
+      <c r="J41" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="H41" s="77" t="s">
-        <v>298</v>
-      </c>
-      <c r="I41" s="124" t="s">
+      <c r="K41" s="77" t="s">
+        <v>296</v>
+      </c>
+      <c r="L41" s="124" t="s">
         <v>174</v>
       </c>
-      <c r="J41" s="117" t="s">
+      <c r="M41" s="117" t="s">
         <v>178</v>
       </c>
-      <c r="K41" s="34" t="s">
+      <c r="N41" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="L41" s="111"/>
-      <c r="M41" s="12"/>
-    </row>
-    <row r="42" spans="2:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="O41" s="111"/>
+      <c r="P41" s="12"/>
+    </row>
+    <row r="42" spans="2:16" ht="33" x14ac:dyDescent="0.3">
       <c r="B42" s="89">
         <v>27</v>
       </c>
       <c r="C42" s="135" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D42" s="16" t="s">
         <v>28</v>
@@ -3770,34 +4288,41 @@
         <v>136</v>
       </c>
       <c r="F42" s="72" t="s">
-        <v>212</v>
-      </c>
-      <c r="G42" s="65" t="s">
+        <v>210</v>
+      </c>
+      <c r="G42" s="159" t="s">
+        <v>338</v>
+      </c>
+      <c r="H42" s="159" t="s">
+        <v>339</v>
+      </c>
+      <c r="I42" s="159"/>
+      <c r="J42" s="65" t="s">
         <v>184</v>
       </c>
-      <c r="H42" s="77" t="s">
+      <c r="K42" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="I42" s="125" t="s">
-        <v>279</v>
-      </c>
-      <c r="J42" s="118" t="s">
-        <v>197</v>
-      </c>
-      <c r="K42" s="91" t="s">
-        <v>39</v>
-      </c>
-      <c r="L42" s="112" t="s">
-        <v>280</v>
-      </c>
-      <c r="M42" s="90"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L42" s="125" t="s">
+        <v>277</v>
+      </c>
+      <c r="M42" s="118" t="s">
+        <v>196</v>
+      </c>
+      <c r="N42" s="91" t="s">
+        <v>39</v>
+      </c>
+      <c r="O42" s="112" t="s">
+        <v>278</v>
+      </c>
+      <c r="P42" s="90"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B43" s="89">
         <v>28</v>
       </c>
       <c r="C43" s="34" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D43" s="16" t="s">
         <v>29</v>
@@ -3808,13 +4333,39 @@
       <c r="F43" s="8" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="G43" s="164" t="s">
+        <v>322</v>
+      </c>
+      <c r="H43" s="164" t="s">
+        <v>322</v>
+      </c>
+      <c r="I43" s="164" t="s">
+        <v>322</v>
+      </c>
+      <c r="J43" s="158" t="s">
+        <v>271</v>
+      </c>
+      <c r="K43" s="76" t="s">
+        <v>272</v>
+      </c>
+      <c r="L43" s="158" t="s">
+        <v>39</v>
+      </c>
+      <c r="M43" s="156" t="s">
+        <v>318</v>
+      </c>
+      <c r="N43" s="156" t="s">
+        <v>39</v>
+      </c>
+      <c r="O43" s="155"/>
+      <c r="P43" s="157"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B44" s="89">
         <v>29</v>
       </c>
       <c r="C44" s="34" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D44" s="16" t="s">
         <v>30</v>
@@ -3825,13 +4376,39 @@
       <c r="F44" s="8" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="G44" s="164" t="s">
+        <v>322</v>
+      </c>
+      <c r="H44" s="164" t="s">
+        <v>322</v>
+      </c>
+      <c r="I44" s="164" t="s">
+        <v>322</v>
+      </c>
+      <c r="J44" s="158" t="s">
+        <v>271</v>
+      </c>
+      <c r="K44" s="76" t="s">
+        <v>272</v>
+      </c>
+      <c r="L44" s="158" t="s">
+        <v>39</v>
+      </c>
+      <c r="M44" s="156" t="s">
+        <v>39</v>
+      </c>
+      <c r="N44" s="156" t="s">
+        <v>39</v>
+      </c>
+      <c r="O44" s="155"/>
+      <c r="P44" s="157"/>
+    </row>
+    <row r="45" spans="2:16" ht="33" x14ac:dyDescent="0.3">
       <c r="B45" s="89">
         <v>30</v>
       </c>
       <c r="C45" s="34" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D45" s="16" t="s">
         <v>67</v>
@@ -3842,57 +4419,89 @@
       <c r="F45" s="8" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="G45" s="164" t="s">
+        <v>322</v>
+      </c>
+      <c r="H45" s="164" t="s">
+        <v>322</v>
+      </c>
+      <c r="I45" s="164" t="s">
+        <v>322</v>
+      </c>
+      <c r="J45" s="158" t="s">
+        <v>271</v>
+      </c>
+      <c r="K45" s="76" t="s">
+        <v>272</v>
+      </c>
+      <c r="L45" s="158" t="s">
+        <v>39</v>
+      </c>
+      <c r="M45" s="156" t="s">
+        <v>39</v>
+      </c>
+      <c r="N45" s="156" t="s">
+        <v>39</v>
+      </c>
+      <c r="O45" s="155"/>
+      <c r="P45" s="157"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B46" s="19">
         <v>31</v>
       </c>
       <c r="C46" s="92" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D46" s="68" t="s">
         <v>139</v>
       </c>
-      <c r="E46" s="155" t="s">
+      <c r="E46" s="199" t="s">
         <v>118</v>
       </c>
-      <c r="F46" s="156"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="78"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="68"/>
-      <c r="K46" s="68"/>
-      <c r="L46" s="111"/>
-      <c r="M46" s="12"/>
-    </row>
-    <row r="47" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F46" s="200"/>
+      <c r="G46" s="166"/>
+      <c r="H46" s="166"/>
+      <c r="I46" s="166"/>
+      <c r="J46" s="19"/>
+      <c r="K46" s="78"/>
+      <c r="L46" s="19"/>
+      <c r="M46" s="68"/>
+      <c r="N46" s="68"/>
+      <c r="O46" s="111"/>
+      <c r="P46" s="12"/>
+    </row>
+    <row r="47" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B47" s="19">
         <v>32</v>
       </c>
       <c r="C47" s="93" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D47" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="E47" s="155" t="s">
+      <c r="E47" s="199" t="s">
         <v>101</v>
       </c>
-      <c r="F47" s="156"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="78"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="68"/>
-      <c r="K47" s="68"/>
-      <c r="L47" s="111"/>
-      <c r="M47" s="12"/>
-    </row>
-    <row r="48" spans="2:13" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="F47" s="200"/>
+      <c r="G47" s="166"/>
+      <c r="H47" s="166"/>
+      <c r="I47" s="166"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="78"/>
+      <c r="L47" s="19"/>
+      <c r="M47" s="68"/>
+      <c r="N47" s="68"/>
+      <c r="O47" s="111"/>
+      <c r="P47" s="12"/>
+    </row>
+    <row r="48" spans="2:16" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B48" s="89">
         <v>33</v>
       </c>
       <c r="C48" s="136" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D48" s="16" t="s">
         <v>74</v>
@@ -3903,32 +4512,41 @@
       <c r="F48" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G48" s="55" t="s">
+      <c r="G48" s="159" t="s">
+        <v>340</v>
+      </c>
+      <c r="H48" s="159" t="s">
+        <v>339</v>
+      </c>
+      <c r="I48" s="159" t="s">
+        <v>333</v>
+      </c>
+      <c r="J48" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="H48" s="77" t="s">
+      <c r="K48" s="77" t="s">
+        <v>197</v>
+      </c>
+      <c r="L48" s="124" t="s">
         <v>198</v>
       </c>
-      <c r="I48" s="124" t="s">
-        <v>199</v>
-      </c>
-      <c r="J48" s="117" t="s">
-        <v>197</v>
-      </c>
-      <c r="K48" s="34" t="s">
+      <c r="M48" s="117" t="s">
+        <v>196</v>
+      </c>
+      <c r="N48" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="L48" s="113"/>
-      <c r="M48" s="12" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="49" spans="2:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="O48" s="113"/>
+      <c r="P48" s="12" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="49" spans="2:16" ht="33" x14ac:dyDescent="0.3">
       <c r="B49" s="89">
         <v>34</v>
       </c>
       <c r="C49" s="34" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D49" s="16" t="s">
         <v>75</v>
@@ -3939,30 +4557,39 @@
       <c r="F49" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G49" s="96" t="s">
+      <c r="G49" s="176" t="s">
+        <v>322</v>
+      </c>
+      <c r="H49" s="176" t="s">
+        <v>322</v>
+      </c>
+      <c r="I49" s="176" t="s">
+        <v>322</v>
+      </c>
+      <c r="J49" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="H49" s="77" t="s">
-        <v>198</v>
-      </c>
-      <c r="I49" s="127" t="s">
-        <v>305</v>
-      </c>
-      <c r="J49" s="120" t="s">
-        <v>306</v>
-      </c>
-      <c r="K49" s="34" t="s">
+      <c r="K49" s="77" t="s">
+        <v>197</v>
+      </c>
+      <c r="L49" s="127" t="s">
+        <v>300</v>
+      </c>
+      <c r="M49" s="120" t="s">
+        <v>301</v>
+      </c>
+      <c r="N49" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="L49" s="111"/>
-      <c r="M49" s="12"/>
-    </row>
-    <row r="50" spans="2:13" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="O49" s="111"/>
+      <c r="P49" s="12"/>
+    </row>
+    <row r="50" spans="2:16" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B50" s="17">
         <v>35</v>
       </c>
       <c r="C50" s="101" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D50" s="71" t="s">
         <v>76</v>
@@ -3973,30 +4600,39 @@
       <c r="F50" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G50" s="96" t="s">
+      <c r="G50" s="176" t="s">
+        <v>322</v>
+      </c>
+      <c r="H50" s="176" t="s">
+        <v>322</v>
+      </c>
+      <c r="I50" s="176" t="s">
+        <v>322</v>
+      </c>
+      <c r="J50" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="H50" s="77" t="s">
-        <v>298</v>
-      </c>
-      <c r="I50" s="141" t="s">
-        <v>301</v>
-      </c>
-      <c r="J50" s="120" t="s">
-        <v>304</v>
-      </c>
-      <c r="K50" s="34" t="s">
+      <c r="K50" s="77" t="s">
+        <v>296</v>
+      </c>
+      <c r="L50" s="141" t="s">
+        <v>368</v>
+      </c>
+      <c r="M50" s="120" t="s">
+        <v>299</v>
+      </c>
+      <c r="N50" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="L50" s="111"/>
-      <c r="M50" s="12"/>
-    </row>
-    <row r="51" spans="2:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="O50" s="111"/>
+      <c r="P50" s="12"/>
+    </row>
+    <row r="51" spans="2:16" ht="33" x14ac:dyDescent="0.3">
       <c r="B51" s="89">
         <v>36</v>
       </c>
       <c r="C51" s="34" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D51" s="16" t="s">
         <v>37</v>
@@ -4007,30 +4643,39 @@
       <c r="F51" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="G51" s="96" t="s">
+      <c r="G51" s="174" t="s">
+        <v>341</v>
+      </c>
+      <c r="H51" s="174" t="s">
+        <v>342</v>
+      </c>
+      <c r="I51" s="174" t="s">
+        <v>333</v>
+      </c>
+      <c r="J51" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="H51" s="77" t="s">
+      <c r="K51" s="77" t="s">
+        <v>296</v>
+      </c>
+      <c r="L51" s="141" t="s">
+        <v>369</v>
+      </c>
+      <c r="M51" s="120" t="s">
         <v>298</v>
       </c>
-      <c r="I51" s="141" t="s">
-        <v>300</v>
-      </c>
-      <c r="J51" s="120" t="s">
-        <v>303</v>
-      </c>
-      <c r="K51" s="34" t="s">
+      <c r="N51" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="L51" s="111"/>
-      <c r="M51" s="12"/>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="O51" s="111"/>
+      <c r="P51" s="12"/>
+    </row>
+    <row r="52" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B52" s="17">
         <v>37</v>
       </c>
       <c r="C52" s="101" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D52" s="71" t="s">
         <v>32</v>
@@ -4041,30 +4686,39 @@
       <c r="F52" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G52" s="96" t="s">
+      <c r="G52" s="176" t="s">
+        <v>322</v>
+      </c>
+      <c r="H52" s="176" t="s">
+        <v>322</v>
+      </c>
+      <c r="I52" s="176" t="s">
+        <v>322</v>
+      </c>
+      <c r="J52" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="H52" s="77" t="s">
-        <v>298</v>
-      </c>
-      <c r="I52" s="141" t="s">
-        <v>299</v>
-      </c>
-      <c r="J52" s="120" t="s">
-        <v>302</v>
-      </c>
-      <c r="K52" s="34" t="s">
+      <c r="K52" s="77" t="s">
+        <v>296</v>
+      </c>
+      <c r="L52" s="141" t="s">
+        <v>370</v>
+      </c>
+      <c r="M52" s="120" t="s">
+        <v>297</v>
+      </c>
+      <c r="N52" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="L52" s="111"/>
-      <c r="M52" s="12"/>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="O52" s="111"/>
+      <c r="P52" s="12"/>
+    </row>
+    <row r="53" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B53" s="89">
         <v>38</v>
       </c>
       <c r="C53" s="34" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D53" s="16" t="s">
         <v>33</v>
@@ -4075,34 +4729,43 @@
       <c r="F53" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G53" s="150" t="s">
-        <v>216</v>
-      </c>
-      <c r="H53" s="151" t="s">
+      <c r="G53" s="159" t="s">
+        <v>343</v>
+      </c>
+      <c r="H53" s="159" t="s">
+        <v>342</v>
+      </c>
+      <c r="I53" s="159" t="s">
+        <v>333</v>
+      </c>
+      <c r="J53" s="150" t="s">
+        <v>214</v>
+      </c>
+      <c r="K53" s="151" t="s">
         <v>20</v>
       </c>
-      <c r="I53" s="152" t="s">
-        <v>214</v>
-      </c>
-      <c r="J53" s="153" t="s">
+      <c r="L53" s="152" t="s">
+        <v>212</v>
+      </c>
+      <c r="M53" s="153" t="s">
         <v>182</v>
       </c>
-      <c r="K53" s="154" t="s">
+      <c r="N53" s="154" t="s">
         <v>21</v>
       </c>
-      <c r="L53" s="115" t="s">
-        <v>213</v>
-      </c>
-      <c r="M53" s="12" t="s">
+      <c r="O53" s="115" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="P53" s="12" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="54" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B54" s="17">
         <v>39</v>
       </c>
       <c r="C54" s="101" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D54" s="71" t="s">
         <v>34</v>
@@ -4113,30 +4776,39 @@
       <c r="F54" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G54" s="18" t="s">
-        <v>273</v>
-      </c>
-      <c r="H54" s="76" t="s">
-        <v>274</v>
-      </c>
-      <c r="I54" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="J54" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="K54" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L54" s="3"/>
-      <c r="M54" s="12"/>
-    </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="G54" s="164" t="s">
+        <v>322</v>
+      </c>
+      <c r="H54" s="164" t="s">
+        <v>322</v>
+      </c>
+      <c r="I54" s="164" t="s">
+        <v>322</v>
+      </c>
+      <c r="J54" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="K54" s="76" t="s">
+        <v>272</v>
+      </c>
+      <c r="L54" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="M54" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="N54" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="O54" s="3"/>
+      <c r="P54" s="12"/>
+    </row>
+    <row r="55" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B55" s="17">
         <v>40</v>
       </c>
       <c r="C55" s="101" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D55" s="71" t="s">
         <v>35</v>
@@ -4147,30 +4819,39 @@
       <c r="F55" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G55" s="18" t="s">
-        <v>273</v>
-      </c>
-      <c r="H55" s="76" t="s">
-        <v>274</v>
-      </c>
-      <c r="I55" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="J55" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="K55" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L55" s="3"/>
-      <c r="M55" s="12"/>
-    </row>
-    <row r="56" spans="2:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="G55" s="164" t="s">
+        <v>322</v>
+      </c>
+      <c r="H55" s="164" t="s">
+        <v>322</v>
+      </c>
+      <c r="I55" s="164" t="s">
+        <v>322</v>
+      </c>
+      <c r="J55" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="K55" s="76" t="s">
+        <v>272</v>
+      </c>
+      <c r="L55" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="M55" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="N55" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="O55" s="3"/>
+      <c r="P55" s="12"/>
+    </row>
+    <row r="56" spans="2:16" ht="33" x14ac:dyDescent="0.3">
       <c r="B56" s="137">
         <v>41</v>
       </c>
       <c r="C56" s="67" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D56" s="21" t="s">
         <v>73</v>
@@ -4181,30 +4862,39 @@
       <c r="F56" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G56" s="66" t="s">
+      <c r="G56" s="167" t="s">
+        <v>344</v>
+      </c>
+      <c r="H56" s="167" t="s">
+        <v>345</v>
+      </c>
+      <c r="I56" s="167" t="s">
+        <v>333</v>
+      </c>
+      <c r="J56" s="66" t="s">
         <v>190</v>
       </c>
-      <c r="H56" s="79" t="s">
-        <v>275</v>
-      </c>
-      <c r="I56" s="128" t="s">
+      <c r="K56" s="79" t="s">
+        <v>273</v>
+      </c>
+      <c r="L56" s="128" t="s">
         <v>194</v>
       </c>
-      <c r="J56" s="121" t="s">
+      <c r="M56" s="121" t="s">
         <v>193</v>
       </c>
-      <c r="K56" s="67" t="s">
+      <c r="N56" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="L56" s="3"/>
-      <c r="M56" s="12"/>
-    </row>
-    <row r="57" spans="2:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="O56" s="3"/>
+      <c r="P56" s="12"/>
+    </row>
+    <row r="57" spans="2:16" ht="33" x14ac:dyDescent="0.3">
       <c r="B57" s="38">
         <v>42</v>
       </c>
       <c r="C57" s="107" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D57" s="35" t="s">
         <v>59</v>
@@ -4215,30 +4905,39 @@
       <c r="F57" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="G57" s="39" t="s">
+      <c r="G57" s="168" t="s">
+        <v>346</v>
+      </c>
+      <c r="H57" s="168" t="s">
+        <v>347</v>
+      </c>
+      <c r="I57" s="169" t="s">
+        <v>348</v>
+      </c>
+      <c r="J57" s="39" t="s">
         <v>187</v>
       </c>
-      <c r="H57" s="81" t="s">
+      <c r="K57" s="81" t="s">
         <v>55</v>
       </c>
-      <c r="I57" s="129" t="s">
-        <v>318</v>
-      </c>
-      <c r="J57" s="122" t="s">
+      <c r="L57" s="129" t="s">
+        <v>313</v>
+      </c>
+      <c r="M57" s="122" t="s">
         <v>181</v>
       </c>
-      <c r="K57" s="40" t="s">
+      <c r="N57" s="40" t="s">
         <v>180</v>
       </c>
-      <c r="L57" s="3"/>
-      <c r="M57" s="12"/>
-    </row>
-    <row r="58" spans="2:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="O57" s="3"/>
+      <c r="P57" s="12"/>
+    </row>
+    <row r="58" spans="2:16" ht="33" x14ac:dyDescent="0.3">
       <c r="B58" s="38">
         <v>43</v>
       </c>
       <c r="C58" s="107" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D58" s="35" t="s">
         <v>42</v>
@@ -4249,30 +4948,39 @@
       <c r="F58" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="G58" s="39" t="s">
+      <c r="G58" s="168" t="s">
+        <v>349</v>
+      </c>
+      <c r="H58" s="168" t="s">
+        <v>347</v>
+      </c>
+      <c r="I58" s="169" t="s">
+        <v>348</v>
+      </c>
+      <c r="J58" s="39" t="s">
         <v>188</v>
       </c>
-      <c r="H58" s="81" t="s">
+      <c r="K58" s="81" t="s">
         <v>55</v>
       </c>
-      <c r="I58" s="129" t="s">
+      <c r="L58" s="129" t="s">
         <v>188</v>
       </c>
-      <c r="J58" s="122" t="s">
+      <c r="M58" s="122" t="s">
         <v>181</v>
       </c>
-      <c r="K58" s="40" t="s">
+      <c r="N58" s="40" t="s">
         <v>180</v>
       </c>
-      <c r="L58" s="3"/>
-      <c r="M58" s="12"/>
-    </row>
-    <row r="59" spans="2:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="O58" s="3"/>
+      <c r="P58" s="12"/>
+    </row>
+    <row r="59" spans="2:16" ht="33" x14ac:dyDescent="0.3">
       <c r="B59" s="137">
         <v>44</v>
       </c>
       <c r="C59" s="67" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D59" s="21" t="s">
         <v>43</v>
@@ -4283,30 +4991,39 @@
       <c r="F59" s="72" t="s">
         <v>151</v>
       </c>
-      <c r="G59" s="66" t="s">
+      <c r="G59" s="167" t="s">
+        <v>350</v>
+      </c>
+      <c r="H59" s="167" t="s">
+        <v>345</v>
+      </c>
+      <c r="I59" s="167" t="s">
+        <v>333</v>
+      </c>
+      <c r="J59" s="66" t="s">
         <v>191</v>
       </c>
-      <c r="H59" s="79" t="s">
-        <v>275</v>
-      </c>
-      <c r="I59" s="128" t="s">
+      <c r="K59" s="79" t="s">
+        <v>273</v>
+      </c>
+      <c r="L59" s="128" t="s">
         <v>195</v>
       </c>
-      <c r="J59" s="121" t="s">
+      <c r="M59" s="121" t="s">
         <v>193</v>
       </c>
-      <c r="K59" s="67" t="s">
+      <c r="N59" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="L59" s="3"/>
-      <c r="M59" s="12"/>
-    </row>
-    <row r="60" spans="2:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="O59" s="3"/>
+      <c r="P59" s="12"/>
+    </row>
+    <row r="60" spans="2:16" ht="33" x14ac:dyDescent="0.3">
       <c r="B60" s="89">
         <v>45</v>
       </c>
       <c r="C60" s="34" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D60" s="16" t="s">
         <v>38</v>
@@ -4317,30 +5034,39 @@
       <c r="F60" s="72" t="s">
         <v>153</v>
       </c>
-      <c r="G60" s="55" t="s">
+      <c r="G60" s="159" t="s">
+        <v>351</v>
+      </c>
+      <c r="H60" s="159" t="s">
+        <v>352</v>
+      </c>
+      <c r="I60" s="159" t="s">
+        <v>333</v>
+      </c>
+      <c r="J60" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="H60" s="77" t="s">
-        <v>198</v>
-      </c>
-      <c r="I60" s="124" t="s">
+      <c r="K60" s="77" t="s">
+        <v>197</v>
+      </c>
+      <c r="L60" s="124" t="s">
         <v>186</v>
       </c>
-      <c r="J60" s="117" t="s">
+      <c r="M60" s="117" t="s">
         <v>170</v>
       </c>
-      <c r="K60" s="34" t="s">
+      <c r="N60" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="L60" s="3"/>
-      <c r="M60" s="12"/>
-    </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="O60" s="3"/>
+      <c r="P60" s="12"/>
+    </row>
+    <row r="61" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B61" s="43">
         <v>46</v>
       </c>
       <c r="C61" s="108" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D61" s="41" t="s">
         <v>57</v>
@@ -4351,74 +5077,89 @@
       <c r="F61" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="G61" s="131" t="s">
+      <c r="G61" s="170" t="s">
+        <v>353</v>
+      </c>
+      <c r="H61" s="170" t="s">
+        <v>354</v>
+      </c>
+      <c r="I61" s="171" t="s">
+        <v>348</v>
+      </c>
+      <c r="J61" s="131" t="s">
         <v>58</v>
       </c>
-      <c r="H61" s="132" t="s">
+      <c r="K61" s="132" t="s">
         <v>55</v>
       </c>
-      <c r="I61" s="133" t="s">
+      <c r="L61" s="133" t="s">
         <v>58</v>
       </c>
-      <c r="J61" s="134" t="s">
+      <c r="M61" s="134" t="s">
         <v>56</v>
       </c>
-      <c r="K61" s="109" t="s">
+      <c r="N61" s="109" t="s">
         <v>180</v>
       </c>
-      <c r="L61" s="3"/>
-      <c r="M61" s="12"/>
-    </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="O61" s="3"/>
+      <c r="P61" s="12"/>
+    </row>
+    <row r="62" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B62" s="19">
         <v>47</v>
       </c>
       <c r="C62" s="92" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D62" s="68" t="s">
         <v>139</v>
       </c>
-      <c r="E62" s="155" t="s">
+      <c r="E62" s="199" t="s">
         <v>118</v>
       </c>
-      <c r="F62" s="156"/>
-      <c r="G62" s="19"/>
-      <c r="H62" s="78"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="68"/>
-      <c r="K62" s="68"/>
-      <c r="L62" s="3"/>
-      <c r="M62" s="12"/>
-    </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="F62" s="200"/>
+      <c r="G62" s="166"/>
+      <c r="H62" s="166"/>
+      <c r="I62" s="166"/>
+      <c r="J62" s="19"/>
+      <c r="K62" s="78"/>
+      <c r="L62" s="19"/>
+      <c r="M62" s="68"/>
+      <c r="N62" s="68"/>
+      <c r="O62" s="3"/>
+      <c r="P62" s="12"/>
+    </row>
+    <row r="63" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B63" s="19">
         <v>48</v>
       </c>
       <c r="C63" s="105" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D63" s="105" t="s">
         <v>91</v>
       </c>
-      <c r="E63" s="155" t="s">
+      <c r="E63" s="199" t="s">
         <v>101</v>
       </c>
-      <c r="F63" s="156"/>
-      <c r="G63" s="19"/>
-      <c r="H63" s="78"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="68"/>
-      <c r="K63" s="68"/>
-      <c r="L63" s="3"/>
-      <c r="M63" s="12"/>
-    </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="F63" s="200"/>
+      <c r="G63" s="166"/>
+      <c r="H63" s="166"/>
+      <c r="I63" s="166"/>
+      <c r="J63" s="19"/>
+      <c r="K63" s="78"/>
+      <c r="L63" s="19"/>
+      <c r="M63" s="68"/>
+      <c r="N63" s="68"/>
+      <c r="O63" s="3"/>
+      <c r="P63" s="12"/>
+    </row>
+    <row r="64" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B64" s="43">
         <v>49</v>
       </c>
       <c r="C64" s="108" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D64" s="41" t="s">
         <v>53</v>
@@ -4429,30 +5170,39 @@
       <c r="F64" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="G64" s="131" t="s">
+      <c r="G64" s="170" t="s">
+        <v>355</v>
+      </c>
+      <c r="H64" s="170" t="s">
+        <v>354</v>
+      </c>
+      <c r="I64" s="171" t="s">
+        <v>356</v>
+      </c>
+      <c r="J64" s="131" t="s">
         <v>54</v>
       </c>
-      <c r="H64" s="132" t="s">
+      <c r="K64" s="132" t="s">
         <v>55</v>
       </c>
-      <c r="I64" s="133" t="s">
+      <c r="L64" s="133" t="s">
         <v>54</v>
       </c>
-      <c r="J64" s="134" t="s">
+      <c r="M64" s="134" t="s">
         <v>56</v>
       </c>
-      <c r="K64" s="109" t="s">
+      <c r="N64" s="109" t="s">
         <v>179</v>
       </c>
-      <c r="L64" s="3"/>
-      <c r="M64" s="12"/>
-    </row>
-    <row r="65" spans="2:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="O64" s="3"/>
+      <c r="P64" s="12"/>
+    </row>
+    <row r="65" spans="2:16" ht="33" x14ac:dyDescent="0.3">
       <c r="B65" s="17">
         <v>50</v>
       </c>
       <c r="C65" s="101" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D65" s="71" t="s">
         <v>50</v>
@@ -4463,34 +5213,41 @@
       <c r="F65" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G65" s="65" t="s">
-        <v>184</v>
-      </c>
-      <c r="H65" s="77" t="s">
-        <v>20</v>
-      </c>
-      <c r="I65" s="124" t="s">
-        <v>196</v>
-      </c>
-      <c r="J65" s="117" t="s">
-        <v>182</v>
-      </c>
-      <c r="K65" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="L65" s="113" t="s">
-        <v>205</v>
-      </c>
-      <c r="M65" s="12" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="G65" s="164" t="s">
+        <v>322</v>
+      </c>
+      <c r="H65" s="164" t="s">
+        <v>322</v>
+      </c>
+      <c r="I65" s="164" t="s">
+        <v>322</v>
+      </c>
+      <c r="J65" s="158" t="s">
+        <v>271</v>
+      </c>
+      <c r="K65" s="76" t="s">
+        <v>272</v>
+      </c>
+      <c r="L65" s="158" t="s">
+        <v>39</v>
+      </c>
+      <c r="M65" s="156" t="s">
+        <v>39</v>
+      </c>
+      <c r="N65" s="156" t="s">
+        <v>39</v>
+      </c>
+      <c r="O65" s="113" t="s">
+        <v>204</v>
+      </c>
+      <c r="P65" s="12"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B66" s="17">
         <v>51</v>
       </c>
       <c r="C66" s="101" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D66" s="103" t="s">
         <v>44</v>
@@ -4501,30 +5258,39 @@
       <c r="F66" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G66" s="18" t="s">
-        <v>273</v>
-      </c>
-      <c r="H66" s="76" t="s">
-        <v>274</v>
-      </c>
-      <c r="I66" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="J66" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="K66" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L66" s="3"/>
-      <c r="M66" s="12"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="G66" s="174" t="s">
+        <v>357</v>
+      </c>
+      <c r="H66" s="174" t="s">
+        <v>358</v>
+      </c>
+      <c r="I66" s="174" t="s">
+        <v>325</v>
+      </c>
+      <c r="J66" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="K66" s="76" t="s">
+        <v>272</v>
+      </c>
+      <c r="L66" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="M66" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="N66" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="O66" s="3"/>
+      <c r="P66" s="12"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B67" s="17">
         <v>52</v>
       </c>
       <c r="C67" s="101" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D67" s="103" t="s">
         <v>41</v>
@@ -4535,30 +5301,39 @@
       <c r="F67" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G67" s="18" t="s">
-        <v>273</v>
-      </c>
-      <c r="H67" s="76" t="s">
-        <v>274</v>
-      </c>
-      <c r="I67" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="J67" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="K67" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L67" s="3"/>
-      <c r="M67" s="12"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="G67" s="174" t="s">
+        <v>359</v>
+      </c>
+      <c r="H67" s="174" t="s">
+        <v>360</v>
+      </c>
+      <c r="I67" s="174" t="s">
+        <v>325</v>
+      </c>
+      <c r="J67" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="K67" s="76" t="s">
+        <v>272</v>
+      </c>
+      <c r="L67" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="M67" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="N67" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="O67" s="3"/>
+      <c r="P67" s="12"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B68" s="17">
         <v>53</v>
       </c>
       <c r="C68" s="101" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D68" s="103" t="s">
         <v>40</v>
@@ -4569,30 +5344,39 @@
       <c r="F68" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G68" s="18" t="s">
-        <v>273</v>
-      </c>
-      <c r="H68" s="76" t="s">
-        <v>274</v>
-      </c>
-      <c r="I68" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="J68" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="K68" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L68" s="3"/>
-      <c r="M68" s="12"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="G68" s="174" t="s">
+        <v>361</v>
+      </c>
+      <c r="H68" s="174" t="s">
+        <v>362</v>
+      </c>
+      <c r="I68" s="174" t="s">
+        <v>325</v>
+      </c>
+      <c r="J68" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="K68" s="76" t="s">
+        <v>272</v>
+      </c>
+      <c r="L68" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="M68" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="N68" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="O68" s="3"/>
+      <c r="P68" s="12"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B69" s="17">
         <v>54</v>
       </c>
       <c r="C69" s="101" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D69" s="71" t="s">
         <v>68</v>
@@ -4603,30 +5387,39 @@
       <c r="F69" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G69" s="18" t="s">
-        <v>273</v>
-      </c>
-      <c r="H69" s="76" t="s">
-        <v>274</v>
-      </c>
-      <c r="I69" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="J69" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="K69" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L69" s="3"/>
-      <c r="M69" s="12"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="G69" s="164" t="s">
+        <v>322</v>
+      </c>
+      <c r="H69" s="164" t="s">
+        <v>322</v>
+      </c>
+      <c r="I69" s="164" t="s">
+        <v>322</v>
+      </c>
+      <c r="J69" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="K69" s="76" t="s">
+        <v>272</v>
+      </c>
+      <c r="L69" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="M69" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="N69" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="O69" s="3"/>
+      <c r="P69" s="12"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B70" s="17">
         <v>55</v>
       </c>
       <c r="C70" s="101" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D70" s="71" t="s">
         <v>51</v>
@@ -4637,30 +5430,39 @@
       <c r="F70" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G70" s="18" t="s">
-        <v>273</v>
-      </c>
-      <c r="H70" s="76" t="s">
-        <v>274</v>
-      </c>
-      <c r="I70" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="J70" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="K70" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L70" s="3"/>
-      <c r="M70" s="12"/>
-    </row>
-    <row r="71" spans="2:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="G70" s="164" t="s">
+        <v>322</v>
+      </c>
+      <c r="H70" s="164" t="s">
+        <v>322</v>
+      </c>
+      <c r="I70" s="164" t="s">
+        <v>322</v>
+      </c>
+      <c r="J70" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="K70" s="76" t="s">
+        <v>272</v>
+      </c>
+      <c r="L70" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="M70" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="N70" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="O70" s="3"/>
+      <c r="P70" s="12"/>
+    </row>
+    <row r="71" spans="2:16" ht="33" x14ac:dyDescent="0.3">
       <c r="B71" s="89">
         <v>56</v>
       </c>
       <c r="C71" s="34" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D71" s="16" t="s">
         <v>52</v>
@@ -4671,32 +5473,41 @@
       <c r="F71" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G71" s="142" t="s">
-        <v>312</v>
-      </c>
-      <c r="H71" s="143" t="s">
-        <v>295</v>
-      </c>
-      <c r="I71" s="147" t="s">
-        <v>308</v>
-      </c>
-      <c r="J71" s="148" t="s">
-        <v>310</v>
-      </c>
-      <c r="K71" s="149" t="s">
-        <v>311</v>
-      </c>
-      <c r="L71" s="3"/>
-      <c r="M71" s="12" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="72" spans="2:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="G71" s="164" t="s">
+        <v>322</v>
+      </c>
+      <c r="H71" s="164" t="s">
+        <v>322</v>
+      </c>
+      <c r="I71" s="164" t="s">
+        <v>322</v>
+      </c>
+      <c r="J71" s="142" t="s">
+        <v>307</v>
+      </c>
+      <c r="K71" s="143" t="s">
+        <v>293</v>
+      </c>
+      <c r="L71" s="147" t="s">
+        <v>303</v>
+      </c>
+      <c r="M71" s="148" t="s">
+        <v>305</v>
+      </c>
+      <c r="N71" s="149" t="s">
+        <v>306</v>
+      </c>
+      <c r="O71" s="3"/>
+      <c r="P71" s="12" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" ht="33" x14ac:dyDescent="0.3">
       <c r="B72" s="17">
         <v>57</v>
       </c>
       <c r="C72" s="101" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D72" s="71" t="s">
         <v>60</v>
@@ -4707,30 +5518,39 @@
       <c r="F72" s="72" t="s">
         <v>166</v>
       </c>
-      <c r="G72" s="18" t="s">
-        <v>273</v>
-      </c>
-      <c r="H72" s="76" t="s">
-        <v>274</v>
-      </c>
-      <c r="I72" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="J72" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="K72" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L72" s="3"/>
-      <c r="M72" s="12"/>
-    </row>
-    <row r="73" spans="2:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="G72" s="164" t="s">
+        <v>322</v>
+      </c>
+      <c r="H72" s="164" t="s">
+        <v>322</v>
+      </c>
+      <c r="I72" s="164" t="s">
+        <v>322</v>
+      </c>
+      <c r="J72" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="K72" s="76" t="s">
+        <v>272</v>
+      </c>
+      <c r="L72" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="M72" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="N72" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="O72" s="3"/>
+      <c r="P72" s="12"/>
+    </row>
+    <row r="73" spans="2:16" ht="33" x14ac:dyDescent="0.3">
       <c r="B73" s="89">
         <v>58</v>
       </c>
       <c r="C73" s="34" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D73" s="16" t="s">
         <v>61</v>
@@ -4741,32 +5561,41 @@
       <c r="F73" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G73" s="142" t="s">
-        <v>307</v>
-      </c>
-      <c r="H73" s="143" t="s">
-        <v>295</v>
-      </c>
-      <c r="I73" s="147" t="s">
-        <v>309</v>
-      </c>
-      <c r="J73" s="148" t="s">
-        <v>310</v>
-      </c>
-      <c r="K73" s="149" t="s">
-        <v>311</v>
-      </c>
-      <c r="L73" s="3"/>
-      <c r="M73" s="12" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="74" spans="2:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="G73" s="164" t="s">
+        <v>322</v>
+      </c>
+      <c r="H73" s="164" t="s">
+        <v>322</v>
+      </c>
+      <c r="I73" s="164" t="s">
+        <v>322</v>
+      </c>
+      <c r="J73" s="142" t="s">
+        <v>302</v>
+      </c>
+      <c r="K73" s="143" t="s">
+        <v>293</v>
+      </c>
+      <c r="L73" s="147" t="s">
+        <v>304</v>
+      </c>
+      <c r="M73" s="148" t="s">
+        <v>305</v>
+      </c>
+      <c r="N73" s="149" t="s">
+        <v>306</v>
+      </c>
+      <c r="O73" s="3"/>
+      <c r="P73" s="12" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" ht="33" x14ac:dyDescent="0.3">
       <c r="B74" s="17">
         <v>59</v>
       </c>
       <c r="C74" s="101" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D74" s="71" t="s">
         <v>63</v>
@@ -4777,56 +5606,70 @@
       <c r="F74" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G74" s="18" t="s">
-        <v>273</v>
-      </c>
-      <c r="H74" s="76" t="s">
-        <v>274</v>
-      </c>
-      <c r="I74" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="J74" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="K74" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L74" s="111"/>
-      <c r="M74" s="12"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="G74" s="164" t="s">
+        <v>322</v>
+      </c>
+      <c r="H74" s="164" t="s">
+        <v>322</v>
+      </c>
+      <c r="I74" s="164" t="s">
+        <v>322</v>
+      </c>
+      <c r="J74" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="K74" s="76" t="s">
+        <v>272</v>
+      </c>
+      <c r="L74" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="M74" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="N74" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="O74" s="111"/>
+      <c r="P74" s="12"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B75" s="19">
         <v>60</v>
       </c>
       <c r="C75" s="92" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D75" s="68" t="s">
         <v>145</v>
       </c>
-      <c r="E75" s="155" t="s">
+      <c r="E75" s="199" t="s">
         <v>164</v>
       </c>
-      <c r="F75" s="156"/>
-      <c r="G75" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="H75" s="78"/>
-      <c r="I75" s="130" t="s">
-        <v>200</v>
-      </c>
-      <c r="J75" s="123"/>
-      <c r="K75" s="68"/>
-      <c r="L75" s="111"/>
-      <c r="M75" s="12"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="F75" s="200"/>
+      <c r="G75" s="166" t="s">
+        <v>363</v>
+      </c>
+      <c r="H75" s="166"/>
+      <c r="I75" s="166"/>
+      <c r="J75" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="K75" s="78"/>
+      <c r="L75" s="130" t="s">
+        <v>199</v>
+      </c>
+      <c r="M75" s="123"/>
+      <c r="N75" s="68"/>
+      <c r="O75" s="111"/>
+      <c r="P75" s="12"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B76" s="89">
         <v>61</v>
       </c>
       <c r="C76" s="34" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D76" s="16" t="s">
         <v>47</v>
@@ -4837,34 +5680,43 @@
       <c r="F76" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G76" s="55" t="s">
+      <c r="G76" s="159" t="s">
+        <v>364</v>
+      </c>
+      <c r="H76" s="159" t="s">
+        <v>365</v>
+      </c>
+      <c r="I76" s="159" t="s">
+        <v>333</v>
+      </c>
+      <c r="J76" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="H76" s="77" t="s">
+      <c r="K76" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="I76" s="124" t="s">
-        <v>206</v>
-      </c>
-      <c r="J76" s="117" t="s">
+      <c r="L76" s="124" t="s">
+        <v>205</v>
+      </c>
+      <c r="M76" s="117" t="s">
         <v>192</v>
       </c>
-      <c r="K76" s="34" t="s">
+      <c r="N76" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="L76" s="101" t="s">
-        <v>204</v>
-      </c>
-      <c r="M76" s="12" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="77" spans="2:13" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="O76" s="101" t="s">
+        <v>203</v>
+      </c>
+      <c r="P76" s="12" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B77" s="89">
         <v>62</v>
       </c>
       <c r="C77" s="34" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D77" s="16" t="s">
         <v>46</v>
@@ -4875,218 +5727,222 @@
       <c r="F77" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G77" s="142" t="s">
+      <c r="G77" s="159" t="s">
+        <v>366</v>
+      </c>
+      <c r="H77" s="159" t="s">
+        <v>365</v>
+      </c>
+      <c r="I77" s="159" t="s">
+        <v>325</v>
+      </c>
+      <c r="J77" s="142" t="s">
         <v>36</v>
       </c>
-      <c r="H77" s="143" t="s">
-        <v>295</v>
-      </c>
-      <c r="I77" s="144" t="s">
+      <c r="K77" s="143" t="s">
+        <v>293</v>
+      </c>
+      <c r="L77" s="144" t="s">
         <v>185</v>
       </c>
-      <c r="J77" s="145" t="s">
-        <v>202</v>
-      </c>
-      <c r="K77" s="146" t="s">
+      <c r="M77" s="145" t="s">
+        <v>201</v>
+      </c>
+      <c r="N77" s="146" t="s">
         <v>27</v>
       </c>
-      <c r="L77" s="113"/>
-      <c r="M77" s="12" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="O77" s="113"/>
+      <c r="P77" s="12" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="78" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B78" s="19">
         <v>63</v>
       </c>
       <c r="C78" s="92" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D78" s="68" t="s">
         <v>139</v>
       </c>
-      <c r="E78" s="155" t="s">
+      <c r="E78" s="199" t="s">
         <v>118</v>
       </c>
-      <c r="F78" s="156"/>
-      <c r="G78" s="19"/>
-      <c r="H78" s="78"/>
-      <c r="I78" s="19"/>
-      <c r="J78" s="68"/>
-      <c r="K78" s="68"/>
-      <c r="L78" s="15"/>
-      <c r="M78" s="12"/>
-    </row>
-    <row r="79" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F78" s="200"/>
+      <c r="G78" s="166"/>
+      <c r="H78" s="166"/>
+      <c r="I78" s="166"/>
+      <c r="J78" s="19"/>
+      <c r="K78" s="78"/>
+      <c r="L78" s="19"/>
+      <c r="M78" s="68"/>
+      <c r="N78" s="68"/>
+      <c r="O78" s="15"/>
+      <c r="P78" s="12"/>
+    </row>
+    <row r="79" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B79" s="20">
         <v>64</v>
       </c>
       <c r="C79" s="93" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D79" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="E79" s="157" t="s">
+      <c r="E79" s="195" t="s">
         <v>101</v>
       </c>
-      <c r="F79" s="158"/>
-      <c r="G79" s="20"/>
-      <c r="H79" s="82"/>
-      <c r="I79" s="20"/>
-      <c r="J79" s="69"/>
-      <c r="K79" s="69"/>
-      <c r="L79" s="33"/>
-      <c r="M79" s="24"/>
-    </row>
-    <row r="83" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="G83" s="150" t="s">
-        <v>319</v>
-      </c>
-      <c r="H83" s="151" t="s">
+      <c r="F79" s="196"/>
+      <c r="G79" s="172"/>
+      <c r="H79" s="172"/>
+      <c r="I79" s="172"/>
+      <c r="J79" s="20"/>
+      <c r="K79" s="82"/>
+      <c r="L79" s="20"/>
+      <c r="M79" s="69"/>
+      <c r="N79" s="69"/>
+      <c r="O79" s="33"/>
+      <c r="P79" s="24"/>
+    </row>
+    <row r="83" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="J83" s="150" t="s">
+        <v>314</v>
+      </c>
+      <c r="K83" s="151" t="s">
         <v>20</v>
       </c>
-      <c r="I83" s="152" t="s">
-        <v>320</v>
-      </c>
-      <c r="J83" s="153" t="s">
-        <v>321</v>
-      </c>
-      <c r="K83" s="154" t="s">
+      <c r="L83" s="152" t="s">
+        <v>315</v>
+      </c>
+      <c r="M83" s="153" t="s">
+        <v>316</v>
+      </c>
+      <c r="N83" s="154" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="84" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
-      <c r="G84" s="142" t="s">
-        <v>312</v>
-      </c>
-      <c r="H84" s="143" t="s">
-        <v>295</v>
-      </c>
-      <c r="I84" s="147" t="s">
-        <v>308</v>
-      </c>
-      <c r="J84" s="148" t="s">
-        <v>310</v>
-      </c>
-      <c r="K84" s="149" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="85" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="J84" s="142" t="s">
+        <v>307</v>
+      </c>
+      <c r="K84" s="143" t="s">
+        <v>293</v>
+      </c>
+      <c r="L84" s="147" t="s">
+        <v>303</v>
+      </c>
+      <c r="M84" s="148" t="s">
+        <v>305</v>
+      </c>
+      <c r="N84" s="149" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="85" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
-      <c r="G85" s="150" t="s">
-        <v>215</v>
-      </c>
-      <c r="H85" s="143" t="s">
-        <v>298</v>
-      </c>
-      <c r="I85" s="152" t="s">
-        <v>315</v>
-      </c>
-      <c r="J85" s="153" t="s">
-        <v>282</v>
-      </c>
-      <c r="K85" s="154" t="s">
+      <c r="J85" s="150" t="s">
+        <v>213</v>
+      </c>
+      <c r="K85" s="143" t="s">
+        <v>296</v>
+      </c>
+      <c r="L85" s="152" t="s">
+        <v>310</v>
+      </c>
+      <c r="M85" s="153" t="s">
+        <v>280</v>
+      </c>
+      <c r="N85" s="154" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="86" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
-      <c r="G86" s="142" t="s">
-        <v>307</v>
-      </c>
-      <c r="H86" s="143" t="s">
-        <v>295</v>
-      </c>
-      <c r="I86" s="147" t="s">
-        <v>309</v>
-      </c>
-      <c r="J86" s="148" t="s">
-        <v>310</v>
-      </c>
-      <c r="K86" s="149" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="87" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="J86" s="142" t="s">
+        <v>302</v>
+      </c>
+      <c r="K86" s="143" t="s">
+        <v>293</v>
+      </c>
+      <c r="L86" s="147" t="s">
+        <v>304</v>
+      </c>
+      <c r="M86" s="148" t="s">
+        <v>305</v>
+      </c>
+      <c r="N86" s="149" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="87" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
-      <c r="G87" s="150" t="s">
-        <v>216</v>
-      </c>
-      <c r="H87" s="151" t="s">
+      <c r="J87" s="150" t="s">
+        <v>214</v>
+      </c>
+      <c r="K87" s="151" t="s">
         <v>20</v>
       </c>
-      <c r="I87" s="152" t="s">
-        <v>214</v>
-      </c>
-      <c r="J87" s="153" t="s">
+      <c r="L87" s="152" t="s">
+        <v>212</v>
+      </c>
+      <c r="M87" s="153" t="s">
         <v>182</v>
       </c>
-      <c r="K87" s="154" t="s">
+      <c r="N87" s="154" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="88" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
-      <c r="G88" s="142" t="s">
+      <c r="J88" s="142" t="s">
         <v>36</v>
       </c>
-      <c r="H88" s="143" t="s">
-        <v>295</v>
-      </c>
-      <c r="I88" s="144" t="s">
+      <c r="K88" s="143" t="s">
+        <v>293</v>
+      </c>
+      <c r="L88" s="144" t="s">
         <v>185</v>
       </c>
-      <c r="J88" s="145" t="s">
-        <v>202</v>
-      </c>
-      <c r="K88" s="146" t="s">
+      <c r="M88" s="145" t="s">
+        <v>201</v>
+      </c>
+      <c r="N88" s="146" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="89" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
     </row>
-    <row r="90" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
     </row>
-    <row r="91" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
     </row>
-    <row r="92" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
     </row>
-    <row r="93" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="B15:O79"/>
-  <mergeCells count="23">
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E22:F22"/>
+  <autoFilter ref="B15:P79"/>
+  <mergeCells count="24">
     <mergeCell ref="E79:F79"/>
-    <mergeCell ref="I14:M14"/>
+    <mergeCell ref="L14:P14"/>
     <mergeCell ref="E62:F62"/>
     <mergeCell ref="E63:F63"/>
     <mergeCell ref="E75:F75"/>
@@ -5097,6 +5953,18 @@
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="E34:F34"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5125,56 +5993,56 @@
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B2" s="54" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="54" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D7" s="45"/>
       <c r="E7" s="52" t="s">
+        <v>242</v>
+      </c>
+      <c r="F7" s="52" t="s">
+        <v>237</v>
+      </c>
+      <c r="G7" s="52" t="s">
+        <v>260</v>
+      </c>
+      <c r="H7" s="52" t="s">
+        <v>236</v>
+      </c>
+      <c r="I7" s="52" t="s">
+        <v>261</v>
+      </c>
+      <c r="J7" s="52" t="s">
         <v>244</v>
       </c>
-      <c r="F7" s="52" t="s">
-        <v>239</v>
-      </c>
-      <c r="G7" s="52" t="s">
-        <v>262</v>
-      </c>
-      <c r="H7" s="52" t="s">
-        <v>238</v>
-      </c>
-      <c r="I7" s="52" t="s">
-        <v>263</v>
-      </c>
-      <c r="J7" s="52" t="s">
-        <v>246</v>
-      </c>
       <c r="K7" s="53" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D8" s="58" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E8" s="48">
         <v>8000000</v>
@@ -5192,15 +6060,15 @@
         <v>8000000</v>
       </c>
       <c r="J8" s="48" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K8" s="49" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D9" s="58" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E9" s="48">
         <v>2</v>
@@ -5222,7 +6090,7 @@
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D10" s="58" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E10" s="48">
         <f>E8/E9</f>
@@ -5245,15 +6113,15 @@
         <v>4000000</v>
       </c>
       <c r="J10" s="48" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K10" s="49" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D11" s="58" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E11" s="48">
         <v>12</v>
@@ -5275,7 +6143,7 @@
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D12" s="58" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E12" s="48">
         <f>E10*E11</f>
@@ -5298,15 +6166,15 @@
         <v>48000000</v>
       </c>
       <c r="J12" s="48" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K12" s="49" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D13" s="58" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E13" s="48">
         <v>1</v>
@@ -5328,7 +6196,7 @@
     </row>
     <row r="14" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D14" s="59" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E14" s="50">
         <f>E12/E13</f>
@@ -5351,23 +6219,23 @@
         <v>48000000</v>
       </c>
       <c r="J14" s="50" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K14" s="51"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C16" s="54" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="17" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C17" s="54" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="D18" s="56" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E18" s="46">
         <v>1</v>
@@ -5389,7 +6257,7 @@
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="D19" s="57" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E19" s="48">
         <f>E14/E18</f>
@@ -5412,15 +6280,15 @@
         <v>48000000</v>
       </c>
       <c r="J19" s="48" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K19" s="49" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.3">
       <c r="D20" s="58" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E20" s="48">
         <v>1</v>
@@ -5439,12 +6307,12 @@
       </c>
       <c r="J20" s="48"/>
       <c r="K20" s="12" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="21" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D21" s="59" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E21" s="50">
         <f>E19*E20</f>
@@ -5467,34 +6335,34 @@
         <v>48000000</v>
       </c>
       <c r="J21" s="50" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K21" s="51" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="L21" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B23" s="54" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B24" s="54"/>
       <c r="C24" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="25" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C25" s="54" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.3">
       <c r="D26" s="56" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E26" s="46">
         <v>16000000</v>
@@ -5512,15 +6380,15 @@
         <v>1000000</v>
       </c>
       <c r="J26" s="46" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K26" s="47" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="27" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D27" s="60" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E27" s="50">
         <f>(E21/E26)-1</f>
@@ -5544,7 +6412,7 @@
       </c>
       <c r="J27" s="50"/>
       <c r="K27" s="62" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.3">
@@ -5552,13 +6420,13 @@
     </row>
     <row r="29" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C29" s="54" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D29" s="44"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.3">
       <c r="D30" s="56" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E30" s="46">
         <v>24000</v>
@@ -5576,13 +6444,13 @@
         <v>80000</v>
       </c>
       <c r="J30" s="46" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K30" s="47"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.3">
       <c r="D31" s="57" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E31" s="48">
         <f>INT(E26/E30-1)</f>
@@ -5606,12 +6474,12 @@
       </c>
       <c r="J31" s="48"/>
       <c r="K31" s="63" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.3">
       <c r="D32" s="57" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E32" s="61">
         <f>E26/(65535+1)</f>
@@ -5634,15 +6502,15 @@
         <v>15.2587890625</v>
       </c>
       <c r="J32" s="48" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K32" s="49" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="33" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D33" s="57" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E33" s="61">
         <f>E26/(0+1)</f>
@@ -5665,15 +6533,15 @@
         <v>1000000</v>
       </c>
       <c r="J33" s="48" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K33" s="49" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="34" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D34" s="57" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E34" s="48">
         <v>50</v>
@@ -5691,7 +6559,7 @@
         <v>50</v>
       </c>
       <c r="J34" s="48" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K34" s="49"/>
     </row>
@@ -5721,7 +6589,7 @@
       </c>
       <c r="J35" s="50"/>
       <c r="K35" s="62" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="36" spans="4:11" x14ac:dyDescent="0.3">
@@ -5753,7 +6621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>

--- a/1_Plasma_Pipette/3_Firmware/Plasma_Pipette_V1.0_MCU_PinMap.xlsx
+++ b/1_Plasma_Pipette/3_Firmware/Plasma_Pipette_V1.0_MCU_PinMap.xlsx
@@ -2374,12 +2374,60 @@
     <xf numFmtId="0" fontId="10" fillId="14" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2396,54 +2444,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2926,8 +2926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P59" sqref="P58:P59"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2975,10 +2975,10 @@
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B3" s="179" t="s">
+      <c r="B3" s="195" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="180"/>
+      <c r="C3" s="196"/>
       <c r="D3" s="2">
         <v>128</v>
       </c>
@@ -3000,10 +3000,10 @@
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="181" t="s">
+      <c r="B4" s="197" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="182"/>
+      <c r="C4" s="198"/>
       <c r="D4" s="3">
         <v>16</v>
       </c>
@@ -3026,10 +3026,10 @@
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="181" t="s">
+      <c r="B5" s="197" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="182"/>
+      <c r="C5" s="198"/>
       <c r="D5" s="3">
         <v>48</v>
       </c>
@@ -3054,10 +3054,10 @@
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="181" t="s">
+      <c r="B6" s="197" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="182"/>
+      <c r="C6" s="198"/>
       <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
@@ -3077,10 +3077,10 @@
       <c r="L6" s="12"/>
     </row>
     <row r="7" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="183" t="s">
+      <c r="B7" s="199" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="184"/>
+      <c r="C7" s="200"/>
       <c r="D7" s="4" t="s">
         <v>13</v>
       </c>
@@ -3171,33 +3171,33 @@
       <c r="I13" s="160"/>
     </row>
     <row r="14" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="177" t="s">
+      <c r="B14" s="194" t="s">
         <v>103</v>
       </c>
-      <c r="C14" s="178"/>
-      <c r="D14" s="178" t="s">
+      <c r="C14" s="184"/>
+      <c r="D14" s="184" t="s">
         <v>90</v>
       </c>
-      <c r="E14" s="178" t="s">
+      <c r="E14" s="184" t="s">
         <v>92</v>
       </c>
       <c r="F14" s="186"/>
-      <c r="G14" s="193" t="s">
+      <c r="G14" s="192" t="s">
         <v>367</v>
       </c>
-      <c r="H14" s="194"/>
-      <c r="I14" s="194"/>
-      <c r="J14" s="187" t="s">
+      <c r="H14" s="193"/>
+      <c r="I14" s="193"/>
+      <c r="J14" s="179" t="s">
         <v>14</v>
       </c>
-      <c r="K14" s="188"/>
-      <c r="L14" s="187" t="s">
+      <c r="K14" s="187"/>
+      <c r="L14" s="179" t="s">
         <v>279</v>
       </c>
-      <c r="M14" s="197"/>
-      <c r="N14" s="197"/>
-      <c r="O14" s="197"/>
-      <c r="P14" s="198"/>
+      <c r="M14" s="180"/>
+      <c r="N14" s="180"/>
+      <c r="O14" s="180"/>
+      <c r="P14" s="181"/>
     </row>
     <row r="15" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="6" t="s">
@@ -3254,10 +3254,10 @@
       <c r="D16" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="E16" s="189" t="s">
+      <c r="E16" s="188" t="s">
         <v>101</v>
       </c>
-      <c r="F16" s="190"/>
+      <c r="F16" s="189"/>
       <c r="G16" s="163"/>
       <c r="H16" s="163"/>
       <c r="I16" s="163"/>
@@ -3494,10 +3494,10 @@
       <c r="D22" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="E22" s="191" t="s">
+      <c r="E22" s="190" t="s">
         <v>102</v>
       </c>
-      <c r="F22" s="192"/>
+      <c r="F22" s="191"/>
       <c r="G22" s="165" t="s">
         <v>323</v>
       </c>
@@ -3709,10 +3709,10 @@
       <c r="D27" s="68" t="s">
         <v>110</v>
       </c>
-      <c r="E27" s="199" t="s">
+      <c r="E27" s="182" t="s">
         <v>112</v>
       </c>
-      <c r="F27" s="200"/>
+      <c r="F27" s="183"/>
       <c r="G27" s="166"/>
       <c r="H27" s="166"/>
       <c r="I27" s="166"/>
@@ -3734,10 +3734,10 @@
       <c r="D28" s="68" t="s">
         <v>111</v>
       </c>
-      <c r="E28" s="199" t="s">
+      <c r="E28" s="182" t="s">
         <v>113</v>
       </c>
-      <c r="F28" s="200"/>
+      <c r="F28" s="183"/>
       <c r="G28" s="166"/>
       <c r="H28" s="166"/>
       <c r="I28" s="166"/>
@@ -3931,10 +3931,10 @@
       <c r="D33" s="68" t="s">
         <v>139</v>
       </c>
-      <c r="E33" s="199" t="s">
+      <c r="E33" s="182" t="s">
         <v>118</v>
       </c>
-      <c r="F33" s="200"/>
+      <c r="F33" s="183"/>
       <c r="G33" s="166"/>
       <c r="H33" s="166"/>
       <c r="I33" s="166"/>
@@ -3956,10 +3956,10 @@
       <c r="D34" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="E34" s="199" t="s">
+      <c r="E34" s="182" t="s">
         <v>101</v>
       </c>
-      <c r="F34" s="200"/>
+      <c r="F34" s="183"/>
       <c r="G34" s="166"/>
       <c r="H34" s="166"/>
       <c r="I34" s="166"/>
@@ -4456,10 +4456,10 @@
       <c r="D46" s="68" t="s">
         <v>139</v>
       </c>
-      <c r="E46" s="199" t="s">
+      <c r="E46" s="182" t="s">
         <v>118</v>
       </c>
-      <c r="F46" s="200"/>
+      <c r="F46" s="183"/>
       <c r="G46" s="166"/>
       <c r="H46" s="166"/>
       <c r="I46" s="166"/>
@@ -4481,10 +4481,10 @@
       <c r="D47" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="E47" s="199" t="s">
+      <c r="E47" s="182" t="s">
         <v>101</v>
       </c>
-      <c r="F47" s="200"/>
+      <c r="F47" s="183"/>
       <c r="G47" s="166"/>
       <c r="H47" s="166"/>
       <c r="I47" s="166"/>
@@ -5114,10 +5114,10 @@
       <c r="D62" s="68" t="s">
         <v>139</v>
       </c>
-      <c r="E62" s="199" t="s">
+      <c r="E62" s="182" t="s">
         <v>118</v>
       </c>
-      <c r="F62" s="200"/>
+      <c r="F62" s="183"/>
       <c r="G62" s="166"/>
       <c r="H62" s="166"/>
       <c r="I62" s="166"/>
@@ -5139,10 +5139,10 @@
       <c r="D63" s="105" t="s">
         <v>91</v>
       </c>
-      <c r="E63" s="199" t="s">
+      <c r="E63" s="182" t="s">
         <v>101</v>
       </c>
-      <c r="F63" s="200"/>
+      <c r="F63" s="183"/>
       <c r="G63" s="166"/>
       <c r="H63" s="166"/>
       <c r="I63" s="166"/>
@@ -5643,10 +5643,10 @@
       <c r="D75" s="68" t="s">
         <v>145</v>
       </c>
-      <c r="E75" s="199" t="s">
+      <c r="E75" s="182" t="s">
         <v>164</v>
       </c>
-      <c r="F75" s="200"/>
+      <c r="F75" s="183"/>
       <c r="G75" s="166" t="s">
         <v>363</v>
       </c>
@@ -5766,10 +5766,10 @@
       <c r="D78" s="68" t="s">
         <v>139</v>
       </c>
-      <c r="E78" s="199" t="s">
+      <c r="E78" s="182" t="s">
         <v>118</v>
       </c>
-      <c r="F78" s="200"/>
+      <c r="F78" s="183"/>
       <c r="G78" s="166"/>
       <c r="H78" s="166"/>
       <c r="I78" s="166"/>
@@ -5791,10 +5791,10 @@
       <c r="D79" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="E79" s="195" t="s">
+      <c r="E79" s="177" t="s">
         <v>101</v>
       </c>
-      <c r="F79" s="196"/>
+      <c r="F79" s="178"/>
       <c r="G79" s="172"/>
       <c r="H79" s="172"/>
       <c r="I79" s="172"/>
@@ -5941,6 +5941,18 @@
   </sheetData>
   <autoFilter ref="B15:P79"/>
   <mergeCells count="24">
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G14:I14"/>
     <mergeCell ref="E79:F79"/>
     <mergeCell ref="L14:P14"/>
     <mergeCell ref="E62:F62"/>
@@ -5953,18 +5965,6 @@
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="E34:F34"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1_Plasma_Pipette/3_Firmware/Plasma_Pipette_V1.0_MCU_PinMap.xlsx
+++ b/1_Plasma_Pipette/3_Firmware/Plasma_Pipette_V1.0_MCU_PinMap.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12975"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12975" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Pipette V1.0" sheetId="9" r:id="rId1"/>
@@ -2374,36 +2374,39 @@
     <xf numFmtId="0" fontId="10" fillId="14" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2425,25 +2428,22 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2926,8 +2926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2975,10 +2975,10 @@
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B3" s="195" t="s">
+      <c r="B3" s="179" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="196"/>
+      <c r="C3" s="180"/>
       <c r="D3" s="2">
         <v>128</v>
       </c>
@@ -3000,10 +3000,10 @@
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="197" t="s">
+      <c r="B4" s="181" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="198"/>
+      <c r="C4" s="182"/>
       <c r="D4" s="3">
         <v>16</v>
       </c>
@@ -3026,10 +3026,10 @@
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="197" t="s">
+      <c r="B5" s="181" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="198"/>
+      <c r="C5" s="182"/>
       <c r="D5" s="3">
         <v>48</v>
       </c>
@@ -3054,10 +3054,10 @@
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="197" t="s">
+      <c r="B6" s="181" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="198"/>
+      <c r="C6" s="182"/>
       <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
@@ -3077,10 +3077,10 @@
       <c r="L6" s="12"/>
     </row>
     <row r="7" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="199" t="s">
+      <c r="B7" s="183" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="200"/>
+      <c r="C7" s="184"/>
       <c r="D7" s="4" t="s">
         <v>13</v>
       </c>
@@ -3171,33 +3171,33 @@
       <c r="I13" s="160"/>
     </row>
     <row r="14" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="194" t="s">
+      <c r="B14" s="177" t="s">
         <v>103</v>
       </c>
-      <c r="C14" s="184"/>
-      <c r="D14" s="184" t="s">
+      <c r="C14" s="178"/>
+      <c r="D14" s="178" t="s">
         <v>90</v>
       </c>
-      <c r="E14" s="184" t="s">
+      <c r="E14" s="178" t="s">
         <v>92</v>
       </c>
       <c r="F14" s="186"/>
-      <c r="G14" s="192" t="s">
+      <c r="G14" s="193" t="s">
         <v>367</v>
       </c>
-      <c r="H14" s="193"/>
-      <c r="I14" s="193"/>
-      <c r="J14" s="179" t="s">
+      <c r="H14" s="194"/>
+      <c r="I14" s="194"/>
+      <c r="J14" s="187" t="s">
         <v>14</v>
       </c>
-      <c r="K14" s="187"/>
-      <c r="L14" s="179" t="s">
+      <c r="K14" s="188"/>
+      <c r="L14" s="187" t="s">
         <v>279</v>
       </c>
-      <c r="M14" s="180"/>
-      <c r="N14" s="180"/>
-      <c r="O14" s="180"/>
-      <c r="P14" s="181"/>
+      <c r="M14" s="197"/>
+      <c r="N14" s="197"/>
+      <c r="O14" s="197"/>
+      <c r="P14" s="198"/>
     </row>
     <row r="15" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="6" t="s">
@@ -3254,10 +3254,10 @@
       <c r="D16" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="E16" s="188" t="s">
+      <c r="E16" s="189" t="s">
         <v>101</v>
       </c>
-      <c r="F16" s="189"/>
+      <c r="F16" s="190"/>
       <c r="G16" s="163"/>
       <c r="H16" s="163"/>
       <c r="I16" s="163"/>
@@ -3494,10 +3494,10 @@
       <c r="D22" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="E22" s="190" t="s">
+      <c r="E22" s="191" t="s">
         <v>102</v>
       </c>
-      <c r="F22" s="191"/>
+      <c r="F22" s="192"/>
       <c r="G22" s="165" t="s">
         <v>323</v>
       </c>
@@ -3709,10 +3709,10 @@
       <c r="D27" s="68" t="s">
         <v>110</v>
       </c>
-      <c r="E27" s="182" t="s">
+      <c r="E27" s="199" t="s">
         <v>112</v>
       </c>
-      <c r="F27" s="183"/>
+      <c r="F27" s="200"/>
       <c r="G27" s="166"/>
       <c r="H27" s="166"/>
       <c r="I27" s="166"/>
@@ -3734,10 +3734,10 @@
       <c r="D28" s="68" t="s">
         <v>111</v>
       </c>
-      <c r="E28" s="182" t="s">
+      <c r="E28" s="199" t="s">
         <v>113</v>
       </c>
-      <c r="F28" s="183"/>
+      <c r="F28" s="200"/>
       <c r="G28" s="166"/>
       <c r="H28" s="166"/>
       <c r="I28" s="166"/>
@@ -3931,10 +3931,10 @@
       <c r="D33" s="68" t="s">
         <v>139</v>
       </c>
-      <c r="E33" s="182" t="s">
+      <c r="E33" s="199" t="s">
         <v>118</v>
       </c>
-      <c r="F33" s="183"/>
+      <c r="F33" s="200"/>
       <c r="G33" s="166"/>
       <c r="H33" s="166"/>
       <c r="I33" s="166"/>
@@ -3956,10 +3956,10 @@
       <c r="D34" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="E34" s="182" t="s">
+      <c r="E34" s="199" t="s">
         <v>101</v>
       </c>
-      <c r="F34" s="183"/>
+      <c r="F34" s="200"/>
       <c r="G34" s="166"/>
       <c r="H34" s="166"/>
       <c r="I34" s="166"/>
@@ -4456,10 +4456,10 @@
       <c r="D46" s="68" t="s">
         <v>139</v>
       </c>
-      <c r="E46" s="182" t="s">
+      <c r="E46" s="199" t="s">
         <v>118</v>
       </c>
-      <c r="F46" s="183"/>
+      <c r="F46" s="200"/>
       <c r="G46" s="166"/>
       <c r="H46" s="166"/>
       <c r="I46" s="166"/>
@@ -4481,10 +4481,10 @@
       <c r="D47" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="E47" s="182" t="s">
+      <c r="E47" s="199" t="s">
         <v>101</v>
       </c>
-      <c r="F47" s="183"/>
+      <c r="F47" s="200"/>
       <c r="G47" s="166"/>
       <c r="H47" s="166"/>
       <c r="I47" s="166"/>
@@ -5114,10 +5114,10 @@
       <c r="D62" s="68" t="s">
         <v>139</v>
       </c>
-      <c r="E62" s="182" t="s">
+      <c r="E62" s="199" t="s">
         <v>118</v>
       </c>
-      <c r="F62" s="183"/>
+      <c r="F62" s="200"/>
       <c r="G62" s="166"/>
       <c r="H62" s="166"/>
       <c r="I62" s="166"/>
@@ -5139,10 +5139,10 @@
       <c r="D63" s="105" t="s">
         <v>91</v>
       </c>
-      <c r="E63" s="182" t="s">
+      <c r="E63" s="199" t="s">
         <v>101</v>
       </c>
-      <c r="F63" s="183"/>
+      <c r="F63" s="200"/>
       <c r="G63" s="166"/>
       <c r="H63" s="166"/>
       <c r="I63" s="166"/>
@@ -5643,10 +5643,10 @@
       <c r="D75" s="68" t="s">
         <v>145</v>
       </c>
-      <c r="E75" s="182" t="s">
+      <c r="E75" s="199" t="s">
         <v>164</v>
       </c>
-      <c r="F75" s="183"/>
+      <c r="F75" s="200"/>
       <c r="G75" s="166" t="s">
         <v>363</v>
       </c>
@@ -5766,10 +5766,10 @@
       <c r="D78" s="68" t="s">
         <v>139</v>
       </c>
-      <c r="E78" s="182" t="s">
+      <c r="E78" s="199" t="s">
         <v>118</v>
       </c>
-      <c r="F78" s="183"/>
+      <c r="F78" s="200"/>
       <c r="G78" s="166"/>
       <c r="H78" s="166"/>
       <c r="I78" s="166"/>
@@ -5791,10 +5791,10 @@
       <c r="D79" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="E79" s="177" t="s">
+      <c r="E79" s="195" t="s">
         <v>101</v>
       </c>
-      <c r="F79" s="178"/>
+      <c r="F79" s="196"/>
       <c r="G79" s="172"/>
       <c r="H79" s="172"/>
       <c r="I79" s="172"/>
@@ -5941,18 +5941,6 @@
   </sheetData>
   <autoFilter ref="B15:P79"/>
   <mergeCells count="24">
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G14:I14"/>
     <mergeCell ref="E79:F79"/>
     <mergeCell ref="L14:P14"/>
     <mergeCell ref="E62:F62"/>
@@ -5965,6 +5953,18 @@
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="E34:F34"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5976,8 +5976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L41"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6377,7 +6377,7 @@
         <v>8000000</v>
       </c>
       <c r="I26" s="46">
-        <v>1000000</v>
+        <v>16000000</v>
       </c>
       <c r="J26" s="46" t="s">
         <v>225</v>
@@ -6408,7 +6408,7 @@
       </c>
       <c r="I27" s="50">
         <f>(I21/I26)-1</f>
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="J27" s="50"/>
       <c r="K27" s="62" t="s">
@@ -6441,7 +6441,7 @@
         <v>80000</v>
       </c>
       <c r="I30" s="46">
-        <v>80000</v>
+        <v>50000</v>
       </c>
       <c r="J30" s="46" t="s">
         <v>225</v>
@@ -6470,7 +6470,7 @@
       </c>
       <c r="I31" s="48">
         <f>INT(I26/I30-1)</f>
-        <v>11</v>
+        <v>319</v>
       </c>
       <c r="J31" s="48"/>
       <c r="K31" s="63" t="s">
@@ -6499,7 +6499,7 @@
       </c>
       <c r="I32" s="61">
         <f>I26/(65535+1)</f>
-        <v>15.2587890625</v>
+        <v>244.140625</v>
       </c>
       <c r="J32" s="48" t="s">
         <v>225</v>
@@ -6530,7 +6530,7 @@
       </c>
       <c r="I33" s="61">
         <f>I26/(0+1)</f>
-        <v>1000000</v>
+        <v>16000000</v>
       </c>
       <c r="J33" s="48" t="s">
         <v>225</v>
@@ -6585,7 +6585,7 @@
       </c>
       <c r="I35" s="50">
         <f>INT(I31*I34/100)</f>
-        <v>5</v>
+        <v>159</v>
       </c>
       <c r="J35" s="50"/>
       <c r="K35" s="62" t="s">
